--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\SecondoProgettoASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5493436-0244-42F5-8767-4751949C7C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1778767-4341-4C45-A6FB-6AFF32CBA103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9870" yWindow="2670" windowWidth="21600" windowHeight="11835" firstSheet="98" activeTab="101" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -45,76 +45,75 @@
     <sheet name="2411" sheetId="30" r:id="rId30"/>
     <sheet name="2691" sheetId="31" r:id="rId31"/>
     <sheet name="3003" sheetId="32" r:id="rId32"/>
-    <sheet name="Foglio1" sheetId="101" r:id="rId33"/>
-    <sheet name="3351" sheetId="33" r:id="rId34"/>
-    <sheet name="3740" sheetId="34" r:id="rId35"/>
-    <sheet name="4174" sheetId="35" r:id="rId36"/>
-    <sheet name="4658" sheetId="36" r:id="rId37"/>
-    <sheet name="5198" sheetId="37" r:id="rId38"/>
-    <sheet name="5801" sheetId="38" r:id="rId39"/>
-    <sheet name="6474" sheetId="39" r:id="rId40"/>
-    <sheet name="7226" sheetId="40" r:id="rId41"/>
-    <sheet name="8064" sheetId="41" r:id="rId42"/>
-    <sheet name="8999" sheetId="42" r:id="rId43"/>
-    <sheet name="10043" sheetId="43" r:id="rId44"/>
-    <sheet name="11208" sheetId="44" r:id="rId45"/>
-    <sheet name="12509" sheetId="45" r:id="rId46"/>
-    <sheet name="13960" sheetId="46" r:id="rId47"/>
-    <sheet name="15579" sheetId="47" r:id="rId48"/>
-    <sheet name="17386" sheetId="48" r:id="rId49"/>
-    <sheet name="19403" sheetId="49" r:id="rId50"/>
-    <sheet name="21654" sheetId="50" r:id="rId51"/>
-    <sheet name="24166" sheetId="51" r:id="rId52"/>
-    <sheet name="26969" sheetId="52" r:id="rId53"/>
-    <sheet name="30098" sheetId="53" r:id="rId54"/>
-    <sheet name="33589" sheetId="54" r:id="rId55"/>
-    <sheet name="37485" sheetId="55" r:id="rId56"/>
-    <sheet name="41834" sheetId="56" r:id="rId57"/>
-    <sheet name="46686" sheetId="57" r:id="rId58"/>
-    <sheet name="52102" sheetId="58" r:id="rId59"/>
-    <sheet name="58146" sheetId="59" r:id="rId60"/>
-    <sheet name="64891" sheetId="60" r:id="rId61"/>
-    <sheet name="72418" sheetId="61" r:id="rId62"/>
-    <sheet name="80819" sheetId="62" r:id="rId63"/>
-    <sheet name="90194" sheetId="63" r:id="rId64"/>
-    <sheet name="100657" sheetId="64" r:id="rId65"/>
-    <sheet name="112333" sheetId="65" r:id="rId66"/>
-    <sheet name="125363" sheetId="66" r:id="rId67"/>
-    <sheet name="139906" sheetId="67" r:id="rId68"/>
-    <sheet name="156135" sheetId="68" r:id="rId69"/>
-    <sheet name="174246" sheetId="69" r:id="rId70"/>
-    <sheet name="194459" sheetId="70" r:id="rId71"/>
-    <sheet name="217016" sheetId="71" r:id="rId72"/>
-    <sheet name="242190" sheetId="72" r:id="rId73"/>
-    <sheet name="270285" sheetId="73" r:id="rId74"/>
-    <sheet name="301638" sheetId="74" r:id="rId75"/>
-    <sheet name="336628" sheetId="75" r:id="rId76"/>
-    <sheet name="375676" sheetId="76" r:id="rId77"/>
-    <sheet name="419255" sheetId="77" r:id="rId78"/>
-    <sheet name="467889" sheetId="78" r:id="rId79"/>
-    <sheet name="522164" sheetId="79" r:id="rId80"/>
-    <sheet name="582735" sheetId="80" r:id="rId81"/>
-    <sheet name="650332" sheetId="81" r:id="rId82"/>
-    <sheet name="725771" sheetId="82" r:id="rId83"/>
-    <sheet name="809960" sheetId="83" r:id="rId84"/>
-    <sheet name="903916" sheetId="84" r:id="rId85"/>
-    <sheet name="1008770" sheetId="85" r:id="rId86"/>
-    <sheet name="1125787" sheetId="86" r:id="rId87"/>
-    <sheet name="1256379" sheetId="87" r:id="rId88"/>
-    <sheet name="1402119" sheetId="88" r:id="rId89"/>
-    <sheet name="1564765" sheetId="89" r:id="rId90"/>
-    <sheet name="1746277" sheetId="90" r:id="rId91"/>
-    <sheet name="1948845" sheetId="91" r:id="rId92"/>
-    <sheet name="2174912" sheetId="92" r:id="rId93"/>
-    <sheet name="2427201" sheetId="93" r:id="rId94"/>
-    <sheet name="2708757" sheetId="94" r:id="rId95"/>
-    <sheet name="3022973" sheetId="95" r:id="rId96"/>
-    <sheet name="3373638" sheetId="96" r:id="rId97"/>
-    <sheet name="3764980" sheetId="97" r:id="rId98"/>
-    <sheet name="4201717" sheetId="98" r:id="rId99"/>
-    <sheet name="4689117" sheetId="99" r:id="rId100"/>
-    <sheet name="5233054" sheetId="100" r:id="rId101"/>
-    <sheet name="Elaborazione dati" sheetId="102" r:id="rId102"/>
+    <sheet name="3351" sheetId="33" r:id="rId33"/>
+    <sheet name="3740" sheetId="34" r:id="rId34"/>
+    <sheet name="4174" sheetId="35" r:id="rId35"/>
+    <sheet name="4658" sheetId="36" r:id="rId36"/>
+    <sheet name="5198" sheetId="37" r:id="rId37"/>
+    <sheet name="5801" sheetId="38" r:id="rId38"/>
+    <sheet name="6474" sheetId="39" r:id="rId39"/>
+    <sheet name="7226" sheetId="40" r:id="rId40"/>
+    <sheet name="8064" sheetId="41" r:id="rId41"/>
+    <sheet name="8999" sheetId="42" r:id="rId42"/>
+    <sheet name="10043" sheetId="43" r:id="rId43"/>
+    <sheet name="11208" sheetId="44" r:id="rId44"/>
+    <sheet name="12509" sheetId="45" r:id="rId45"/>
+    <sheet name="13960" sheetId="46" r:id="rId46"/>
+    <sheet name="15579" sheetId="47" r:id="rId47"/>
+    <sheet name="17386" sheetId="48" r:id="rId48"/>
+    <sheet name="19403" sheetId="49" r:id="rId49"/>
+    <sheet name="21654" sheetId="50" r:id="rId50"/>
+    <sheet name="24166" sheetId="51" r:id="rId51"/>
+    <sheet name="26969" sheetId="52" r:id="rId52"/>
+    <sheet name="30098" sheetId="53" r:id="rId53"/>
+    <sheet name="33589" sheetId="54" r:id="rId54"/>
+    <sheet name="37485" sheetId="55" r:id="rId55"/>
+    <sheet name="41834" sheetId="56" r:id="rId56"/>
+    <sheet name="46686" sheetId="57" r:id="rId57"/>
+    <sheet name="52102" sheetId="58" r:id="rId58"/>
+    <sheet name="58146" sheetId="59" r:id="rId59"/>
+    <sheet name="64891" sheetId="60" r:id="rId60"/>
+    <sheet name="72418" sheetId="61" r:id="rId61"/>
+    <sheet name="80819" sheetId="62" r:id="rId62"/>
+    <sheet name="90194" sheetId="63" r:id="rId63"/>
+    <sheet name="100657" sheetId="64" r:id="rId64"/>
+    <sheet name="112333" sheetId="65" r:id="rId65"/>
+    <sheet name="125363" sheetId="66" r:id="rId66"/>
+    <sheet name="139906" sheetId="67" r:id="rId67"/>
+    <sheet name="156135" sheetId="68" r:id="rId68"/>
+    <sheet name="174246" sheetId="69" r:id="rId69"/>
+    <sheet name="194459" sheetId="70" r:id="rId70"/>
+    <sheet name="217016" sheetId="71" r:id="rId71"/>
+    <sheet name="242190" sheetId="72" r:id="rId72"/>
+    <sheet name="270285" sheetId="73" r:id="rId73"/>
+    <sheet name="301638" sheetId="74" r:id="rId74"/>
+    <sheet name="336628" sheetId="75" r:id="rId75"/>
+    <sheet name="375676" sheetId="76" r:id="rId76"/>
+    <sheet name="419255" sheetId="77" r:id="rId77"/>
+    <sheet name="467889" sheetId="78" r:id="rId78"/>
+    <sheet name="522164" sheetId="79" r:id="rId79"/>
+    <sheet name="582735" sheetId="80" r:id="rId80"/>
+    <sheet name="650332" sheetId="81" r:id="rId81"/>
+    <sheet name="725771" sheetId="82" r:id="rId82"/>
+    <sheet name="809960" sheetId="83" r:id="rId83"/>
+    <sheet name="903916" sheetId="84" r:id="rId84"/>
+    <sheet name="1008770" sheetId="85" r:id="rId85"/>
+    <sheet name="1125787" sheetId="86" r:id="rId86"/>
+    <sheet name="1256379" sheetId="87" r:id="rId87"/>
+    <sheet name="1402119" sheetId="88" r:id="rId88"/>
+    <sheet name="1564765" sheetId="89" r:id="rId89"/>
+    <sheet name="1746277" sheetId="90" r:id="rId90"/>
+    <sheet name="1948845" sheetId="91" r:id="rId91"/>
+    <sheet name="2174912" sheetId="92" r:id="rId92"/>
+    <sheet name="2427201" sheetId="93" r:id="rId93"/>
+    <sheet name="2708757" sheetId="94" r:id="rId94"/>
+    <sheet name="3022973" sheetId="95" r:id="rId95"/>
+    <sheet name="3373638" sheetId="96" r:id="rId96"/>
+    <sheet name="3764980" sheetId="97" r:id="rId97"/>
+    <sheet name="4201717" sheetId="98" r:id="rId98"/>
+    <sheet name="4689117" sheetId="99" r:id="rId99"/>
+    <sheet name="5233054" sheetId="100" r:id="rId100"/>
+    <sheet name="Elaborazione dati" sheetId="102" r:id="rId101"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1983,640 +1982,6 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6819AB-E47B-4009-9D64-D972A846A6F7}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>622.5</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>690</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>693.5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>2309.7244897959185</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>1661.4861224489791</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>497.1902040816326</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>48.059593108930066</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>40.761331215368557</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>22.297762311084774</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>675</v>
-      </c>
-      <c r="B5">
-        <v>702</v>
-      </c>
-      <c r="C5">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>599</v>
-      </c>
-      <c r="B6">
-        <v>767</v>
-      </c>
-      <c r="C6">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>613</v>
-      </c>
-      <c r="B7">
-        <v>674</v>
-      </c>
-      <c r="C7">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>646</v>
-      </c>
-      <c r="B8">
-        <v>700</v>
-      </c>
-      <c r="C8">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>607</v>
-      </c>
-      <c r="B9">
-        <v>685</v>
-      </c>
-      <c r="C9">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>733</v>
-      </c>
-      <c r="B10">
-        <v>742</v>
-      </c>
-      <c r="C10">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>574</v>
-      </c>
-      <c r="B11">
-        <v>684</v>
-      </c>
-      <c r="C11">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>606</v>
-      </c>
-      <c r="B12">
-        <v>782</v>
-      </c>
-      <c r="C12">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>642</v>
-      </c>
-      <c r="B13">
-        <v>681</v>
-      </c>
-      <c r="C13">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>733</v>
-      </c>
-      <c r="B14">
-        <v>685</v>
-      </c>
-      <c r="C14">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>659</v>
-      </c>
-      <c r="B15">
-        <v>680</v>
-      </c>
-      <c r="C15">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>686</v>
-      </c>
-      <c r="B16">
-        <v>670</v>
-      </c>
-      <c r="C16">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>564</v>
-      </c>
-      <c r="B17">
-        <v>692</v>
-      </c>
-      <c r="C17">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>574</v>
-      </c>
-      <c r="B18">
-        <v>684</v>
-      </c>
-      <c r="C18">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>620</v>
-      </c>
-      <c r="B19">
-        <v>703</v>
-      </c>
-      <c r="C19">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>641</v>
-      </c>
-      <c r="B20">
-        <v>681</v>
-      </c>
-      <c r="C20">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>591</v>
-      </c>
-      <c r="B21">
-        <v>693</v>
-      </c>
-      <c r="C21">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>586</v>
-      </c>
-      <c r="B22">
-        <v>680</v>
-      </c>
-      <c r="C22">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>573</v>
-      </c>
-      <c r="B23">
-        <v>771</v>
-      </c>
-      <c r="C23">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>630</v>
-      </c>
-      <c r="B24">
-        <v>670</v>
-      </c>
-      <c r="C24">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>722</v>
-      </c>
-      <c r="B25">
-        <v>701</v>
-      </c>
-      <c r="C25">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>581</v>
-      </c>
-      <c r="B26">
-        <v>675</v>
-      </c>
-      <c r="C26">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>624</v>
-      </c>
-      <c r="B27">
-        <v>675</v>
-      </c>
-      <c r="C27">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>708</v>
-      </c>
-      <c r="B28">
-        <v>734</v>
-      </c>
-      <c r="C28">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>681</v>
-      </c>
-      <c r="B29">
-        <v>772</v>
-      </c>
-      <c r="C29">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>655</v>
-      </c>
-      <c r="B30">
-        <v>670</v>
-      </c>
-      <c r="C30">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>670</v>
-      </c>
-      <c r="B31">
-        <v>688</v>
-      </c>
-      <c r="C31">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>574</v>
-      </c>
-      <c r="B32">
-        <v>691</v>
-      </c>
-      <c r="C32">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>603</v>
-      </c>
-      <c r="B33">
-        <v>683</v>
-      </c>
-      <c r="C33">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>673</v>
-      </c>
-      <c r="B34">
-        <v>669</v>
-      </c>
-      <c r="C34">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>721</v>
-      </c>
-      <c r="B35">
-        <v>742</v>
-      </c>
-      <c r="C35">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>598</v>
-      </c>
-      <c r="B36">
-        <v>689</v>
-      </c>
-      <c r="C36">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>716</v>
-      </c>
-      <c r="B37">
-        <v>710</v>
-      </c>
-      <c r="C37">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>684</v>
-      </c>
-      <c r="B38">
-        <v>734</v>
-      </c>
-      <c r="C38">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>609</v>
-      </c>
-      <c r="B39">
-        <v>697</v>
-      </c>
-      <c r="C39">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>623</v>
-      </c>
-      <c r="B40">
-        <v>682</v>
-      </c>
-      <c r="C40">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>727</v>
-      </c>
-      <c r="B41">
-        <v>831</v>
-      </c>
-      <c r="C41">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>630</v>
-      </c>
-      <c r="B42">
-        <v>694</v>
-      </c>
-      <c r="C42">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>617</v>
-      </c>
-      <c r="B43">
-        <v>770</v>
-      </c>
-      <c r="C43">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>630</v>
-      </c>
-      <c r="B44">
-        <v>687</v>
-      </c>
-      <c r="C44">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>594</v>
-      </c>
-      <c r="B45">
-        <v>796</v>
-      </c>
-      <c r="C45">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>635</v>
-      </c>
-      <c r="B46">
-        <v>698</v>
-      </c>
-      <c r="C46">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>588</v>
-      </c>
-      <c r="B47">
-        <v>811</v>
-      </c>
-      <c r="C47">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>588</v>
-      </c>
-      <c r="B48">
-        <v>683</v>
-      </c>
-      <c r="C48">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>611</v>
-      </c>
-      <c r="B49">
-        <v>687</v>
-      </c>
-      <c r="C49">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>581</v>
-      </c>
-      <c r="B50">
-        <v>669</v>
-      </c>
-      <c r="C50">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>622</v>
-      </c>
-      <c r="B51">
-        <v>677</v>
-      </c>
-      <c r="C51">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>613</v>
-      </c>
-      <c r="B52">
-        <v>699</v>
-      </c>
-      <c r="C52">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>662</v>
-      </c>
-      <c r="B53">
-        <v>693</v>
-      </c>
-      <c r="C53">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>613</v>
-      </c>
-      <c r="B54">
-        <v>670</v>
-      </c>
-      <c r="C54">
-        <v>697</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E077D8-D4AE-4552-9B7B-944BD3657D65}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -3250,12 +2615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266AD72F-1108-4B8A-8B76-F182763D916B}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20296,22 +19661,10 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FFF40E-CCB3-4098-B13F-45147B908B82}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCF5234-63FB-426B-A8A4-D1D60F50296E}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -20941,7 +20294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224CA15-DE67-4146-A018-FD093B4C1969}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -21575,7 +20928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18017B5E-8999-4EB7-BD9C-EB1FAABF71A8}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -22209,7 +21562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F6894D-E9F4-464B-B473-44EBACC6F633}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -22843,7 +22196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B93220-8173-496A-A51C-8AC149C4875D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -23477,7 +22830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961DA314-B62D-44B3-9792-81C8D434647E}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -24104,6 +23457,640 @@
       </c>
       <c r="C54">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDF7229-B6C4-448D-8258-2EF795AD9839}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>127</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>153.5</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>149.5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>270.13428571428489</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>365.74530612244934</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>1981.309795918366</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>16.435762401369914</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>19.124468780137381</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>44.511906226518384</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>209</v>
+      </c>
+      <c r="C6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>192</v>
+      </c>
+      <c r="B8">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>122</v>
+      </c>
+      <c r="B10">
+        <v>185</v>
+      </c>
+      <c r="C10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>145</v>
+      </c>
+      <c r="C12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>134</v>
+      </c>
+      <c r="B13">
+        <v>148</v>
+      </c>
+      <c r="C13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>147</v>
+      </c>
+      <c r="B15">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>147</v>
+      </c>
+      <c r="C16">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>179</v>
+      </c>
+      <c r="C17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>131</v>
+      </c>
+      <c r="B18">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>141</v>
+      </c>
+      <c r="C19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>169</v>
+      </c>
+      <c r="B20">
+        <v>147</v>
+      </c>
+      <c r="C20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>141</v>
+      </c>
+      <c r="C21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <v>181</v>
+      </c>
+      <c r="C22">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>123</v>
+      </c>
+      <c r="B23">
+        <v>143</v>
+      </c>
+      <c r="C23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>164</v>
+      </c>
+      <c r="C24">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>128</v>
+      </c>
+      <c r="B25">
+        <v>160</v>
+      </c>
+      <c r="C25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>154</v>
+      </c>
+      <c r="C26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>124</v>
+      </c>
+      <c r="B27">
+        <v>178</v>
+      </c>
+      <c r="C27">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>119</v>
+      </c>
+      <c r="B29">
+        <v>195</v>
+      </c>
+      <c r="C29">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>131</v>
+      </c>
+      <c r="B30">
+        <v>155</v>
+      </c>
+      <c r="C30">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>142</v>
+      </c>
+      <c r="C31">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>153</v>
+      </c>
+      <c r="C32">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>118</v>
+      </c>
+      <c r="B33">
+        <v>161</v>
+      </c>
+      <c r="C33">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>176</v>
+      </c>
+      <c r="C34">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>148</v>
+      </c>
+      <c r="C35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>119</v>
+      </c>
+      <c r="B36">
+        <v>205</v>
+      </c>
+      <c r="C36">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>141</v>
+      </c>
+      <c r="B37">
+        <v>144</v>
+      </c>
+      <c r="C37">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>125</v>
+      </c>
+      <c r="B38">
+        <v>142</v>
+      </c>
+      <c r="C38">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>154</v>
+      </c>
+      <c r="B39">
+        <v>151</v>
+      </c>
+      <c r="C39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>161</v>
+      </c>
+      <c r="B41">
+        <v>167</v>
+      </c>
+      <c r="C41">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>129</v>
+      </c>
+      <c r="B42">
+        <v>146</v>
+      </c>
+      <c r="C42">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>140</v>
+      </c>
+      <c r="B43">
+        <v>152</v>
+      </c>
+      <c r="C43">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <v>144</v>
+      </c>
+      <c r="C44">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>177</v>
+      </c>
+      <c r="B45">
+        <v>199</v>
+      </c>
+      <c r="C45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>120</v>
+      </c>
+      <c r="B46">
+        <v>158</v>
+      </c>
+      <c r="C46">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>118</v>
+      </c>
+      <c r="B47">
+        <v>192</v>
+      </c>
+      <c r="C47">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>121</v>
+      </c>
+      <c r="B48">
+        <v>146</v>
+      </c>
+      <c r="C48">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>135</v>
+      </c>
+      <c r="B49">
+        <v>154</v>
+      </c>
+      <c r="C49">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>145</v>
+      </c>
+      <c r="C50">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>119</v>
+      </c>
+      <c r="B51">
+        <v>149</v>
+      </c>
+      <c r="C51">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>161</v>
+      </c>
+      <c r="B52">
+        <v>179</v>
+      </c>
+      <c r="C52">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>126</v>
+      </c>
+      <c r="B53">
+        <v>143</v>
+      </c>
+      <c r="C53">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>127</v>
+      </c>
+      <c r="B54">
+        <v>166</v>
+      </c>
+      <c r="C54">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -24746,640 +24733,6 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDF7229-B6C4-448D-8258-2EF795AD9839}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>127</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>153.5</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>149.5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>270.13428571428489</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>365.74530612244934</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>1981.309795918366</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>16.435762401369914</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>19.124468780137381</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>44.511906226518384</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>125</v>
-      </c>
-      <c r="B5">
-        <v>143</v>
-      </c>
-      <c r="C5">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>140</v>
-      </c>
-      <c r="B6">
-        <v>209</v>
-      </c>
-      <c r="C6">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>127</v>
-      </c>
-      <c r="B7">
-        <v>155</v>
-      </c>
-      <c r="C7">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>192</v>
-      </c>
-      <c r="B8">
-        <v>201</v>
-      </c>
-      <c r="C8">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>123</v>
-      </c>
-      <c r="B9">
-        <v>150</v>
-      </c>
-      <c r="C9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>122</v>
-      </c>
-      <c r="B10">
-        <v>185</v>
-      </c>
-      <c r="C10">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>130</v>
-      </c>
-      <c r="B11">
-        <v>149</v>
-      </c>
-      <c r="C11">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>121</v>
-      </c>
-      <c r="B12">
-        <v>145</v>
-      </c>
-      <c r="C12">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>134</v>
-      </c>
-      <c r="B13">
-        <v>148</v>
-      </c>
-      <c r="C13">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <v>154</v>
-      </c>
-      <c r="C14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>147</v>
-      </c>
-      <c r="B15">
-        <v>155</v>
-      </c>
-      <c r="C15">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>124</v>
-      </c>
-      <c r="B16">
-        <v>147</v>
-      </c>
-      <c r="C16">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>127</v>
-      </c>
-      <c r="B17">
-        <v>179</v>
-      </c>
-      <c r="C17">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>131</v>
-      </c>
-      <c r="B18">
-        <v>156</v>
-      </c>
-      <c r="C18">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>128</v>
-      </c>
-      <c r="B19">
-        <v>141</v>
-      </c>
-      <c r="C19">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>169</v>
-      </c>
-      <c r="B20">
-        <v>147</v>
-      </c>
-      <c r="C20">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>120</v>
-      </c>
-      <c r="B21">
-        <v>141</v>
-      </c>
-      <c r="C21">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>135</v>
-      </c>
-      <c r="B22">
-        <v>181</v>
-      </c>
-      <c r="C22">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>123</v>
-      </c>
-      <c r="B23">
-        <v>143</v>
-      </c>
-      <c r="C23">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>125</v>
-      </c>
-      <c r="B24">
-        <v>164</v>
-      </c>
-      <c r="C24">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>128</v>
-      </c>
-      <c r="B25">
-        <v>160</v>
-      </c>
-      <c r="C25">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>122</v>
-      </c>
-      <c r="B26">
-        <v>154</v>
-      </c>
-      <c r="C26">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>124</v>
-      </c>
-      <c r="B27">
-        <v>178</v>
-      </c>
-      <c r="C27">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>122</v>
-      </c>
-      <c r="B28">
-        <v>145</v>
-      </c>
-      <c r="C28">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>119</v>
-      </c>
-      <c r="B29">
-        <v>195</v>
-      </c>
-      <c r="C29">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>131</v>
-      </c>
-      <c r="B30">
-        <v>155</v>
-      </c>
-      <c r="C30">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>127</v>
-      </c>
-      <c r="B31">
-        <v>142</v>
-      </c>
-      <c r="C31">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>136</v>
-      </c>
-      <c r="B32">
-        <v>153</v>
-      </c>
-      <c r="C32">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>118</v>
-      </c>
-      <c r="B33">
-        <v>161</v>
-      </c>
-      <c r="C33">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>163</v>
-      </c>
-      <c r="B34">
-        <v>176</v>
-      </c>
-      <c r="C34">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>128</v>
-      </c>
-      <c r="B35">
-        <v>148</v>
-      </c>
-      <c r="C35">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>119</v>
-      </c>
-      <c r="B36">
-        <v>205</v>
-      </c>
-      <c r="C36">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>141</v>
-      </c>
-      <c r="B37">
-        <v>144</v>
-      </c>
-      <c r="C37">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>125</v>
-      </c>
-      <c r="B38">
-        <v>142</v>
-      </c>
-      <c r="C38">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>154</v>
-      </c>
-      <c r="B39">
-        <v>151</v>
-      </c>
-      <c r="C39">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>122</v>
-      </c>
-      <c r="B40">
-        <v>140</v>
-      </c>
-      <c r="C40">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>161</v>
-      </c>
-      <c r="B41">
-        <v>167</v>
-      </c>
-      <c r="C41">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>129</v>
-      </c>
-      <c r="B42">
-        <v>146</v>
-      </c>
-      <c r="C42">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>140</v>
-      </c>
-      <c r="B43">
-        <v>152</v>
-      </c>
-      <c r="C43">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>118</v>
-      </c>
-      <c r="B44">
-        <v>144</v>
-      </c>
-      <c r="C44">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>177</v>
-      </c>
-      <c r="B45">
-        <v>199</v>
-      </c>
-      <c r="C45">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>120</v>
-      </c>
-      <c r="B46">
-        <v>158</v>
-      </c>
-      <c r="C46">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>118</v>
-      </c>
-      <c r="B47">
-        <v>192</v>
-      </c>
-      <c r="C47">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>121</v>
-      </c>
-      <c r="B48">
-        <v>146</v>
-      </c>
-      <c r="C48">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>135</v>
-      </c>
-      <c r="B49">
-        <v>154</v>
-      </c>
-      <c r="C49">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>135</v>
-      </c>
-      <c r="B50">
-        <v>145</v>
-      </c>
-      <c r="C50">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>119</v>
-      </c>
-      <c r="B51">
-        <v>149</v>
-      </c>
-      <c r="C51">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>161</v>
-      </c>
-      <c r="B52">
-        <v>179</v>
-      </c>
-      <c r="C52">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>126</v>
-      </c>
-      <c r="B53">
-        <v>143</v>
-      </c>
-      <c r="C53">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>127</v>
-      </c>
-      <c r="B54">
-        <v>166</v>
-      </c>
-      <c r="C54">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0AAE7D-1C34-40DF-9A8C-5CA287CE3E6F}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -26013,7 +25366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF32179-B9D8-4FD9-99D8-DB315D725E0C}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -26647,7 +26000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7939942A-59C9-4050-BFDA-1454D3133585}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -27281,7 +26634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7343B29-821E-451A-BDAB-76C44027881B}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -27915,7 +27268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E879E38-2F80-49D0-9FA4-13FD648E4C06}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -28549,7 +27902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF4671F-7645-447E-B5D9-2B6A560DA0FC}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -29183,7 +28536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A848FC-DA9C-46A1-8257-420E52EBBF41}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -29817,7 +29170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4683678-347B-473A-ABED-C50F7F2A4A06}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -30451,7 +29804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03304849-709E-4969-9A92-52ABC9330422}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -31078,6 +30431,640 @@
       </c>
       <c r="C54">
         <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F037FAF1-B6BF-4532-8830-CBB926E54FB1}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>170</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>200.5</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>199</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>296.18122448979585</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>422.00367346938754</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>277.83714285714285</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>17.20991645795516</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>20.542727994825505</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>16.668447523904042</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>188</v>
+      </c>
+      <c r="B5">
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>170</v>
+      </c>
+      <c r="B6">
+        <v>208</v>
+      </c>
+      <c r="C6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>194</v>
+      </c>
+      <c r="B7">
+        <v>292</v>
+      </c>
+      <c r="C7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>181</v>
+      </c>
+      <c r="C8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>159</v>
+      </c>
+      <c r="B9">
+        <v>207</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>187</v>
+      </c>
+      <c r="B10">
+        <v>185</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <v>190</v>
+      </c>
+      <c r="C11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>181</v>
+      </c>
+      <c r="C12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>211</v>
+      </c>
+      <c r="C13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>157</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>189</v>
+      </c>
+      <c r="B15">
+        <v>172</v>
+      </c>
+      <c r="C15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="C16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>197</v>
+      </c>
+      <c r="C17">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>179</v>
+      </c>
+      <c r="B18">
+        <v>197</v>
+      </c>
+      <c r="C18">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>154</v>
+      </c>
+      <c r="B19">
+        <v>209</v>
+      </c>
+      <c r="C19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>181</v>
+      </c>
+      <c r="B20">
+        <v>181</v>
+      </c>
+      <c r="C20">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>152</v>
+      </c>
+      <c r="B21">
+        <v>209</v>
+      </c>
+      <c r="C21">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>199</v>
+      </c>
+      <c r="B22">
+        <v>206</v>
+      </c>
+      <c r="C22">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>188</v>
+      </c>
+      <c r="B23">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>198</v>
+      </c>
+      <c r="B24">
+        <v>226</v>
+      </c>
+      <c r="C24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>226</v>
+      </c>
+      <c r="B25">
+        <v>229</v>
+      </c>
+      <c r="C25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>198</v>
+      </c>
+      <c r="B26">
+        <v>177</v>
+      </c>
+      <c r="C26">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>163</v>
+      </c>
+      <c r="B27">
+        <v>198</v>
+      </c>
+      <c r="C27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>205</v>
+      </c>
+      <c r="C28">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <v>181</v>
+      </c>
+      <c r="C29">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>208</v>
+      </c>
+      <c r="C30">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>195</v>
+      </c>
+      <c r="B31">
+        <v>232</v>
+      </c>
+      <c r="C31">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>168</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>153</v>
+      </c>
+      <c r="B33">
+        <v>227</v>
+      </c>
+      <c r="C33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>187</v>
+      </c>
+      <c r="B34">
+        <v>195</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>214</v>
+      </c>
+      <c r="C35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>151</v>
+      </c>
+      <c r="B36">
+        <v>198</v>
+      </c>
+      <c r="C36">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>180</v>
+      </c>
+      <c r="C37">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>154</v>
+      </c>
+      <c r="B38">
+        <v>223</v>
+      </c>
+      <c r="C38">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>196</v>
+      </c>
+      <c r="B39">
+        <v>191</v>
+      </c>
+      <c r="C39">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>169</v>
+      </c>
+      <c r="B40">
+        <v>191</v>
+      </c>
+      <c r="C40">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>157</v>
+      </c>
+      <c r="B41">
+        <v>189</v>
+      </c>
+      <c r="C41">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>187</v>
+      </c>
+      <c r="B42">
+        <v>185</v>
+      </c>
+      <c r="C42">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>156</v>
+      </c>
+      <c r="B43">
+        <v>218</v>
+      </c>
+      <c r="C43">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>172</v>
+      </c>
+      <c r="B44">
+        <v>208</v>
+      </c>
+      <c r="C44">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>185</v>
+      </c>
+      <c r="B45">
+        <v>178</v>
+      </c>
+      <c r="C45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>157</v>
+      </c>
+      <c r="B46">
+        <v>213</v>
+      </c>
+      <c r="C46">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>188</v>
+      </c>
+      <c r="B47">
+        <v>204</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>160</v>
+      </c>
+      <c r="B48">
+        <v>201</v>
+      </c>
+      <c r="C48">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>159</v>
+      </c>
+      <c r="B49">
+        <v>211</v>
+      </c>
+      <c r="C49">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>186</v>
+      </c>
+      <c r="B50">
+        <v>187</v>
+      </c>
+      <c r="C50">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>148</v>
+      </c>
+      <c r="B51">
+        <v>212</v>
+      </c>
+      <c r="C51">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>170</v>
+      </c>
+      <c r="B52">
+        <v>179</v>
+      </c>
+      <c r="C52">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>161</v>
+      </c>
+      <c r="B53">
+        <v>206</v>
+      </c>
+      <c r="C53">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>171</v>
+      </c>
+      <c r="B54">
+        <v>211</v>
+      </c>
+      <c r="C54">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -31720,640 +31707,6 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F037FAF1-B6BF-4532-8830-CBB926E54FB1}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>170</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>200.5</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>199</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>296.18122448979585</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>422.00367346938754</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>277.83714285714285</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>17.20991645795516</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>20.542727994825505</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>16.668447523904042</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>188</v>
-      </c>
-      <c r="B5">
-        <v>192</v>
-      </c>
-      <c r="C5">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>170</v>
-      </c>
-      <c r="B6">
-        <v>208</v>
-      </c>
-      <c r="C6">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>194</v>
-      </c>
-      <c r="B7">
-        <v>292</v>
-      </c>
-      <c r="C7">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>175</v>
-      </c>
-      <c r="B8">
-        <v>181</v>
-      </c>
-      <c r="C8">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>159</v>
-      </c>
-      <c r="B9">
-        <v>207</v>
-      </c>
-      <c r="C9">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>187</v>
-      </c>
-      <c r="B10">
-        <v>185</v>
-      </c>
-      <c r="C10">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>154</v>
-      </c>
-      <c r="B11">
-        <v>190</v>
-      </c>
-      <c r="C11">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>197</v>
-      </c>
-      <c r="B12">
-        <v>181</v>
-      </c>
-      <c r="C12">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>158</v>
-      </c>
-      <c r="B13">
-        <v>211</v>
-      </c>
-      <c r="C13">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>157</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>189</v>
-      </c>
-      <c r="B15">
-        <v>172</v>
-      </c>
-      <c r="C15">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>160</v>
-      </c>
-      <c r="B16">
-        <v>240</v>
-      </c>
-      <c r="C16">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>167</v>
-      </c>
-      <c r="B17">
-        <v>197</v>
-      </c>
-      <c r="C17">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>179</v>
-      </c>
-      <c r="B18">
-        <v>197</v>
-      </c>
-      <c r="C18">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>154</v>
-      </c>
-      <c r="B19">
-        <v>209</v>
-      </c>
-      <c r="C19">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>181</v>
-      </c>
-      <c r="B20">
-        <v>181</v>
-      </c>
-      <c r="C20">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>152</v>
-      </c>
-      <c r="B21">
-        <v>209</v>
-      </c>
-      <c r="C21">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>199</v>
-      </c>
-      <c r="B22">
-        <v>206</v>
-      </c>
-      <c r="C22">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>188</v>
-      </c>
-      <c r="B23">
-        <v>186</v>
-      </c>
-      <c r="C23">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>198</v>
-      </c>
-      <c r="B24">
-        <v>226</v>
-      </c>
-      <c r="C24">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>226</v>
-      </c>
-      <c r="B25">
-        <v>229</v>
-      </c>
-      <c r="C25">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>198</v>
-      </c>
-      <c r="B26">
-        <v>177</v>
-      </c>
-      <c r="C26">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>163</v>
-      </c>
-      <c r="B27">
-        <v>198</v>
-      </c>
-      <c r="C27">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>164</v>
-      </c>
-      <c r="B28">
-        <v>205</v>
-      </c>
-      <c r="C28">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>176</v>
-      </c>
-      <c r="B29">
-        <v>181</v>
-      </c>
-      <c r="C29">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>158</v>
-      </c>
-      <c r="B30">
-        <v>208</v>
-      </c>
-      <c r="C30">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>195</v>
-      </c>
-      <c r="B31">
-        <v>232</v>
-      </c>
-      <c r="C31">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>168</v>
-      </c>
-      <c r="B32">
-        <v>200</v>
-      </c>
-      <c r="C32">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>153</v>
-      </c>
-      <c r="B33">
-        <v>227</v>
-      </c>
-      <c r="C33">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>187</v>
-      </c>
-      <c r="B34">
-        <v>195</v>
-      </c>
-      <c r="C34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>165</v>
-      </c>
-      <c r="B35">
-        <v>214</v>
-      </c>
-      <c r="C35">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>151</v>
-      </c>
-      <c r="B36">
-        <v>198</v>
-      </c>
-      <c r="C36">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>180</v>
-      </c>
-      <c r="B37">
-        <v>180</v>
-      </c>
-      <c r="C37">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>154</v>
-      </c>
-      <c r="B38">
-        <v>223</v>
-      </c>
-      <c r="C38">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>196</v>
-      </c>
-      <c r="B39">
-        <v>191</v>
-      </c>
-      <c r="C39">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>169</v>
-      </c>
-      <c r="B40">
-        <v>191</v>
-      </c>
-      <c r="C40">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>157</v>
-      </c>
-      <c r="B41">
-        <v>189</v>
-      </c>
-      <c r="C41">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>187</v>
-      </c>
-      <c r="B42">
-        <v>185</v>
-      </c>
-      <c r="C42">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>156</v>
-      </c>
-      <c r="B43">
-        <v>218</v>
-      </c>
-      <c r="C43">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>172</v>
-      </c>
-      <c r="B44">
-        <v>208</v>
-      </c>
-      <c r="C44">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>185</v>
-      </c>
-      <c r="B45">
-        <v>178</v>
-      </c>
-      <c r="C45">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>157</v>
-      </c>
-      <c r="B46">
-        <v>213</v>
-      </c>
-      <c r="C46">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>188</v>
-      </c>
-      <c r="B47">
-        <v>204</v>
-      </c>
-      <c r="C47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>160</v>
-      </c>
-      <c r="B48">
-        <v>201</v>
-      </c>
-      <c r="C48">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>159</v>
-      </c>
-      <c r="B49">
-        <v>211</v>
-      </c>
-      <c r="C49">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>186</v>
-      </c>
-      <c r="B50">
-        <v>187</v>
-      </c>
-      <c r="C50">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>148</v>
-      </c>
-      <c r="B51">
-        <v>212</v>
-      </c>
-      <c r="C51">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>170</v>
-      </c>
-      <c r="B52">
-        <v>179</v>
-      </c>
-      <c r="C52">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>161</v>
-      </c>
-      <c r="B53">
-        <v>206</v>
-      </c>
-      <c r="C53">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>171</v>
-      </c>
-      <c r="B54">
-        <v>211</v>
-      </c>
-      <c r="C54">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1DF32B-FF2F-4DBA-8E9D-CA94D7A45A9B}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -32987,7 +32340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F69EFF3-D526-4B4D-B0DA-7101613C5110}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -33621,7 +32974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BF48FC-ED2F-4042-B377-74BF99457D4C}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -34255,7 +33608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB61DBB-0538-4DCF-A244-AADE031F3D76}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -34889,7 +34242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E28830-5D48-4184-B6EF-B758585B87F3}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -35523,7 +34876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29BAE1-AE1D-43ED-BB9B-AD83AAB88F42}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -36157,7 +35510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D51C0E-F0D6-40D7-B31F-7A21687A5709}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -36791,7 +36144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9661B31A-91F2-4C26-A5C5-C7AB15D4E28D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -37425,7 +36778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B8073E-A055-4D87-AB68-A0E563424C1B}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -38052,6 +37405,640 @@
       </c>
       <c r="C54">
         <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC2BC7D-9EE3-469B-BE98-B17848EF4821}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>223.5</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>263</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>258</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>205.39959183673463</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>236.04938775510209</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>199.86285714285705</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>14.331768622076433</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>15.363898846162131</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>14.137286060020751</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>234</v>
+      </c>
+      <c r="B5">
+        <v>253</v>
+      </c>
+      <c r="C5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>293</v>
+      </c>
+      <c r="C6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>287</v>
+      </c>
+      <c r="C7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>231</v>
+      </c>
+      <c r="B8">
+        <v>265</v>
+      </c>
+      <c r="C8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>218</v>
+      </c>
+      <c r="B9">
+        <v>263</v>
+      </c>
+      <c r="C9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>230</v>
+      </c>
+      <c r="B10">
+        <v>279</v>
+      </c>
+      <c r="C10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>222</v>
+      </c>
+      <c r="B11">
+        <v>279</v>
+      </c>
+      <c r="C11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>226</v>
+      </c>
+      <c r="B12">
+        <v>258</v>
+      </c>
+      <c r="C12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <v>241</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>220</v>
+      </c>
+      <c r="B14">
+        <v>249</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>239</v>
+      </c>
+      <c r="B15">
+        <v>266</v>
+      </c>
+      <c r="C15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>243</v>
+      </c>
+      <c r="B16">
+        <v>263</v>
+      </c>
+      <c r="C16">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>230</v>
+      </c>
+      <c r="B17">
+        <v>274</v>
+      </c>
+      <c r="C17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>231</v>
+      </c>
+      <c r="B18">
+        <v>272</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>217</v>
+      </c>
+      <c r="B19">
+        <v>259</v>
+      </c>
+      <c r="C19">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>216</v>
+      </c>
+      <c r="B20">
+        <v>263</v>
+      </c>
+      <c r="C20">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>224</v>
+      </c>
+      <c r="B21">
+        <v>257</v>
+      </c>
+      <c r="C21">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>241</v>
+      </c>
+      <c r="B22">
+        <v>257</v>
+      </c>
+      <c r="C22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>263</v>
+      </c>
+      <c r="C23">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>219</v>
+      </c>
+      <c r="B24">
+        <v>263</v>
+      </c>
+      <c r="C24">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>218</v>
+      </c>
+      <c r="B25">
+        <v>259</v>
+      </c>
+      <c r="C25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>223</v>
+      </c>
+      <c r="B26">
+        <v>301</v>
+      </c>
+      <c r="C26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>226</v>
+      </c>
+      <c r="B27">
+        <v>285</v>
+      </c>
+      <c r="C27">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>201</v>
+      </c>
+      <c r="B28">
+        <v>237</v>
+      </c>
+      <c r="C28">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>231</v>
+      </c>
+      <c r="B29">
+        <v>266</v>
+      </c>
+      <c r="C29">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>216</v>
+      </c>
+      <c r="B30">
+        <v>279</v>
+      </c>
+      <c r="C30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>270</v>
+      </c>
+      <c r="B31">
+        <v>254</v>
+      </c>
+      <c r="C31">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>250</v>
+      </c>
+      <c r="B32">
+        <v>325</v>
+      </c>
+      <c r="C32">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>216</v>
+      </c>
+      <c r="B33">
+        <v>280</v>
+      </c>
+      <c r="C33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>230</v>
+      </c>
+      <c r="B34">
+        <v>270</v>
+      </c>
+      <c r="C34">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>212</v>
+      </c>
+      <c r="B35">
+        <v>269</v>
+      </c>
+      <c r="C35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>228</v>
+      </c>
+      <c r="B36">
+        <v>265</v>
+      </c>
+      <c r="C36">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>210</v>
+      </c>
+      <c r="B37">
+        <v>257</v>
+      </c>
+      <c r="C37">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>221</v>
+      </c>
+      <c r="B38">
+        <v>255</v>
+      </c>
+      <c r="C38">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>197</v>
+      </c>
+      <c r="B39">
+        <v>288</v>
+      </c>
+      <c r="C39">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>209</v>
+      </c>
+      <c r="B40">
+        <v>262</v>
+      </c>
+      <c r="C40">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>237</v>
+      </c>
+      <c r="B41">
+        <v>263</v>
+      </c>
+      <c r="C41">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>225</v>
+      </c>
+      <c r="B42">
+        <v>254</v>
+      </c>
+      <c r="C42">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>214</v>
+      </c>
+      <c r="B43">
+        <v>261</v>
+      </c>
+      <c r="C43">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>219</v>
+      </c>
+      <c r="B44">
+        <v>270</v>
+      </c>
+      <c r="C44">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>235</v>
+      </c>
+      <c r="B45">
+        <v>256</v>
+      </c>
+      <c r="C45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>217</v>
+      </c>
+      <c r="B46">
+        <v>265</v>
+      </c>
+      <c r="C46">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>222</v>
+      </c>
+      <c r="B47">
+        <v>256</v>
+      </c>
+      <c r="C47">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>218</v>
+      </c>
+      <c r="B48">
+        <v>275</v>
+      </c>
+      <c r="C48">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>233</v>
+      </c>
+      <c r="B49">
+        <v>253</v>
+      </c>
+      <c r="C49">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50">
+        <v>250</v>
+      </c>
+      <c r="C50">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>232</v>
+      </c>
+      <c r="B51">
+        <v>265</v>
+      </c>
+      <c r="C51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>217</v>
+      </c>
+      <c r="B52">
+        <v>258</v>
+      </c>
+      <c r="C52">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>229</v>
+      </c>
+      <c r="B53">
+        <v>284</v>
+      </c>
+      <c r="C53">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>223</v>
+      </c>
+      <c r="B54">
+        <v>257</v>
+      </c>
+      <c r="C54">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -38694,640 +38681,6 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC2BC7D-9EE3-469B-BE98-B17848EF4821}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>223.5</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>263</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>258</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>205.39959183673463</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>236.04938775510209</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>199.86285714285705</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>14.331768622076433</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>15.363898846162131</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>14.137286060020751</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>234</v>
-      </c>
-      <c r="B5">
-        <v>253</v>
-      </c>
-      <c r="C5">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>252</v>
-      </c>
-      <c r="B6">
-        <v>293</v>
-      </c>
-      <c r="C6">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>267</v>
-      </c>
-      <c r="B7">
-        <v>287</v>
-      </c>
-      <c r="C7">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>231</v>
-      </c>
-      <c r="B8">
-        <v>265</v>
-      </c>
-      <c r="C8">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>218</v>
-      </c>
-      <c r="B9">
-        <v>263</v>
-      </c>
-      <c r="C9">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>230</v>
-      </c>
-      <c r="B10">
-        <v>279</v>
-      </c>
-      <c r="C10">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>222</v>
-      </c>
-      <c r="B11">
-        <v>279</v>
-      </c>
-      <c r="C11">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>226</v>
-      </c>
-      <c r="B12">
-        <v>258</v>
-      </c>
-      <c r="C12">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>220</v>
-      </c>
-      <c r="B13">
-        <v>241</v>
-      </c>
-      <c r="C13">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>220</v>
-      </c>
-      <c r="B14">
-        <v>249</v>
-      </c>
-      <c r="C14">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>239</v>
-      </c>
-      <c r="B15">
-        <v>266</v>
-      </c>
-      <c r="C15">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>243</v>
-      </c>
-      <c r="B16">
-        <v>263</v>
-      </c>
-      <c r="C16">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>230</v>
-      </c>
-      <c r="B17">
-        <v>274</v>
-      </c>
-      <c r="C17">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>231</v>
-      </c>
-      <c r="B18">
-        <v>272</v>
-      </c>
-      <c r="C18">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>217</v>
-      </c>
-      <c r="B19">
-        <v>259</v>
-      </c>
-      <c r="C19">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>216</v>
-      </c>
-      <c r="B20">
-        <v>263</v>
-      </c>
-      <c r="C20">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>224</v>
-      </c>
-      <c r="B21">
-        <v>257</v>
-      </c>
-      <c r="C21">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>241</v>
-      </c>
-      <c r="B22">
-        <v>257</v>
-      </c>
-      <c r="C22">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>200</v>
-      </c>
-      <c r="B23">
-        <v>263</v>
-      </c>
-      <c r="C23">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>219</v>
-      </c>
-      <c r="B24">
-        <v>263</v>
-      </c>
-      <c r="C24">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>218</v>
-      </c>
-      <c r="B25">
-        <v>259</v>
-      </c>
-      <c r="C25">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>223</v>
-      </c>
-      <c r="B26">
-        <v>301</v>
-      </c>
-      <c r="C26">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>226</v>
-      </c>
-      <c r="B27">
-        <v>285</v>
-      </c>
-      <c r="C27">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>201</v>
-      </c>
-      <c r="B28">
-        <v>237</v>
-      </c>
-      <c r="C28">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>231</v>
-      </c>
-      <c r="B29">
-        <v>266</v>
-      </c>
-      <c r="C29">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>216</v>
-      </c>
-      <c r="B30">
-        <v>279</v>
-      </c>
-      <c r="C30">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>270</v>
-      </c>
-      <c r="B31">
-        <v>254</v>
-      </c>
-      <c r="C31">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>250</v>
-      </c>
-      <c r="B32">
-        <v>325</v>
-      </c>
-      <c r="C32">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>216</v>
-      </c>
-      <c r="B33">
-        <v>280</v>
-      </c>
-      <c r="C33">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>230</v>
-      </c>
-      <c r="B34">
-        <v>270</v>
-      </c>
-      <c r="C34">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>212</v>
-      </c>
-      <c r="B35">
-        <v>269</v>
-      </c>
-      <c r="C35">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>228</v>
-      </c>
-      <c r="B36">
-        <v>265</v>
-      </c>
-      <c r="C36">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>210</v>
-      </c>
-      <c r="B37">
-        <v>257</v>
-      </c>
-      <c r="C37">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>221</v>
-      </c>
-      <c r="B38">
-        <v>255</v>
-      </c>
-      <c r="C38">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>197</v>
-      </c>
-      <c r="B39">
-        <v>288</v>
-      </c>
-      <c r="C39">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>209</v>
-      </c>
-      <c r="B40">
-        <v>262</v>
-      </c>
-      <c r="C40">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>237</v>
-      </c>
-      <c r="B41">
-        <v>263</v>
-      </c>
-      <c r="C41">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>225</v>
-      </c>
-      <c r="B42">
-        <v>254</v>
-      </c>
-      <c r="C42">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>214</v>
-      </c>
-      <c r="B43">
-        <v>261</v>
-      </c>
-      <c r="C43">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>219</v>
-      </c>
-      <c r="B44">
-        <v>270</v>
-      </c>
-      <c r="C44">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>235</v>
-      </c>
-      <c r="B45">
-        <v>256</v>
-      </c>
-      <c r="C45">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>217</v>
-      </c>
-      <c r="B46">
-        <v>265</v>
-      </c>
-      <c r="C46">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>222</v>
-      </c>
-      <c r="B47">
-        <v>256</v>
-      </c>
-      <c r="C47">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>218</v>
-      </c>
-      <c r="B48">
-        <v>275</v>
-      </c>
-      <c r="C48">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>233</v>
-      </c>
-      <c r="B49">
-        <v>253</v>
-      </c>
-      <c r="C49">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>230</v>
-      </c>
-      <c r="B50">
-        <v>250</v>
-      </c>
-      <c r="C50">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>232</v>
-      </c>
-      <c r="B51">
-        <v>265</v>
-      </c>
-      <c r="C51">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>217</v>
-      </c>
-      <c r="B52">
-        <v>258</v>
-      </c>
-      <c r="C52">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>229</v>
-      </c>
-      <c r="B53">
-        <v>284</v>
-      </c>
-      <c r="C53">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>223</v>
-      </c>
-      <c r="B54">
-        <v>257</v>
-      </c>
-      <c r="C54">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3DADD0-0AB5-43E6-8A30-A9C42C4F7253}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -39961,7 +39314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3464F4-5198-4AE9-BCDC-9F8BF5BB5DB1}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -40595,7 +39948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05FFC3E-1697-42D7-82D2-90709DBA19BE}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -41229,7 +40582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE92861-B8DC-4F68-A498-1331EDA77709}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -41863,7 +41216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E38A21B-24D9-492A-BD55-49B8A69150F7}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -42497,7 +41850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A31CB06-AA50-4004-873B-47C4535C169C}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -43131,7 +42484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D668E69E-10B3-4743-B05C-F3E5747414AB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -43765,7 +43118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBEBE0B-113C-4057-A8BD-3CD92B161EEA}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -44399,7 +43752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F8A573-839F-4F9D-927A-80851F9564D9}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -45026,6 +44379,640 @@
       </c>
       <c r="C54">
         <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC33B35-1B88-4CCE-B5AA-60D42C3F161E}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>306</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>339.5</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>326.5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>340.82816326530616</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>378.09183673469386</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>502.03918367346927</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>18.461531985870138</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>19.444583737758283</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>22.406230911812663</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>323</v>
+      </c>
+      <c r="B5">
+        <v>342</v>
+      </c>
+      <c r="C5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>317</v>
+      </c>
+      <c r="B6">
+        <v>369</v>
+      </c>
+      <c r="C6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>331</v>
+      </c>
+      <c r="B7">
+        <v>415</v>
+      </c>
+      <c r="C7">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>349</v>
+      </c>
+      <c r="B8">
+        <v>362</v>
+      </c>
+      <c r="C8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>325</v>
+      </c>
+      <c r="B9">
+        <v>341</v>
+      </c>
+      <c r="C9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>307</v>
+      </c>
+      <c r="B10">
+        <v>346</v>
+      </c>
+      <c r="C10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>307</v>
+      </c>
+      <c r="B11">
+        <v>355</v>
+      </c>
+      <c r="C11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>327</v>
+      </c>
+      <c r="B12">
+        <v>343</v>
+      </c>
+      <c r="C12">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>306</v>
+      </c>
+      <c r="B13">
+        <v>362</v>
+      </c>
+      <c r="C13">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>315</v>
+      </c>
+      <c r="B14">
+        <v>348</v>
+      </c>
+      <c r="C14">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>295</v>
+      </c>
+      <c r="B15">
+        <v>348</v>
+      </c>
+      <c r="C15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>301</v>
+      </c>
+      <c r="B16">
+        <v>349</v>
+      </c>
+      <c r="C16">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>313</v>
+      </c>
+      <c r="B17">
+        <v>359</v>
+      </c>
+      <c r="C17">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>353</v>
+      </c>
+      <c r="B18">
+        <v>358</v>
+      </c>
+      <c r="C18">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>323</v>
+      </c>
+      <c r="B19">
+        <v>339</v>
+      </c>
+      <c r="C19">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>304</v>
+      </c>
+      <c r="B20">
+        <v>353</v>
+      </c>
+      <c r="C20">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>310</v>
+      </c>
+      <c r="B21">
+        <v>323</v>
+      </c>
+      <c r="C21">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>304</v>
+      </c>
+      <c r="B22">
+        <v>332</v>
+      </c>
+      <c r="C22">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>295</v>
+      </c>
+      <c r="B23">
+        <v>344</v>
+      </c>
+      <c r="C23">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>298</v>
+      </c>
+      <c r="B24">
+        <v>351</v>
+      </c>
+      <c r="C24">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>317</v>
+      </c>
+      <c r="B25">
+        <v>334</v>
+      </c>
+      <c r="C25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>309</v>
+      </c>
+      <c r="B26">
+        <v>340</v>
+      </c>
+      <c r="C26">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>317</v>
+      </c>
+      <c r="B27">
+        <v>347</v>
+      </c>
+      <c r="C27">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>334</v>
+      </c>
+      <c r="B28">
+        <v>374</v>
+      </c>
+      <c r="C28">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>320</v>
+      </c>
+      <c r="B29">
+        <v>333</v>
+      </c>
+      <c r="C29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>303</v>
+      </c>
+      <c r="B30">
+        <v>350</v>
+      </c>
+      <c r="C30">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>309</v>
+      </c>
+      <c r="B31">
+        <v>360</v>
+      </c>
+      <c r="C31">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>307</v>
+      </c>
+      <c r="B32">
+        <v>343</v>
+      </c>
+      <c r="C32">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>302</v>
+      </c>
+      <c r="B33">
+        <v>329</v>
+      </c>
+      <c r="C33">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>306</v>
+      </c>
+      <c r="B34">
+        <v>335</v>
+      </c>
+      <c r="C34">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>303</v>
+      </c>
+      <c r="B35">
+        <v>319</v>
+      </c>
+      <c r="C35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>272</v>
+      </c>
+      <c r="B36">
+        <v>328</v>
+      </c>
+      <c r="C36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>310</v>
+      </c>
+      <c r="B37">
+        <v>337</v>
+      </c>
+      <c r="C37">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>295</v>
+      </c>
+      <c r="B38">
+        <v>377</v>
+      </c>
+      <c r="C38">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>306</v>
+      </c>
+      <c r="B39">
+        <v>344</v>
+      </c>
+      <c r="C39">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>299</v>
+      </c>
+      <c r="B40">
+        <v>326</v>
+      </c>
+      <c r="C40">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>312</v>
+      </c>
+      <c r="B41">
+        <v>314</v>
+      </c>
+      <c r="C41">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>282</v>
+      </c>
+      <c r="B42">
+        <v>313</v>
+      </c>
+      <c r="C42">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>296</v>
+      </c>
+      <c r="B43">
+        <v>334</v>
+      </c>
+      <c r="C43">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>282</v>
+      </c>
+      <c r="B44">
+        <v>313</v>
+      </c>
+      <c r="C44">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>311</v>
+      </c>
+      <c r="B45">
+        <v>330</v>
+      </c>
+      <c r="C45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>300</v>
+      </c>
+      <c r="B46">
+        <v>314</v>
+      </c>
+      <c r="C46">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>278</v>
+      </c>
+      <c r="B47">
+        <v>323</v>
+      </c>
+      <c r="C47">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>287</v>
+      </c>
+      <c r="B48">
+        <v>317</v>
+      </c>
+      <c r="C48">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>373</v>
+      </c>
+      <c r="B49">
+        <v>328</v>
+      </c>
+      <c r="C49">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>294</v>
+      </c>
+      <c r="B50">
+        <v>318</v>
+      </c>
+      <c r="C50">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>295</v>
+      </c>
+      <c r="B51">
+        <v>323</v>
+      </c>
+      <c r="C51">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>305</v>
+      </c>
+      <c r="B52">
+        <v>327</v>
+      </c>
+      <c r="C52">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>289</v>
+      </c>
+      <c r="B53">
+        <v>331</v>
+      </c>
+      <c r="C53">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>295</v>
+      </c>
+      <c r="B54">
+        <v>325</v>
+      </c>
+      <c r="C54">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -45668,640 +45655,6 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC33B35-1B88-4CCE-B5AA-60D42C3F161E}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>306</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>339.5</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>326.5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>340.82816326530616</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>378.09183673469386</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>502.03918367346927</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>18.461531985870138</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>19.444583737758283</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>22.406230911812663</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>323</v>
-      </c>
-      <c r="B5">
-        <v>342</v>
-      </c>
-      <c r="C5">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>317</v>
-      </c>
-      <c r="B6">
-        <v>369</v>
-      </c>
-      <c r="C6">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>331</v>
-      </c>
-      <c r="B7">
-        <v>415</v>
-      </c>
-      <c r="C7">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>349</v>
-      </c>
-      <c r="B8">
-        <v>362</v>
-      </c>
-      <c r="C8">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>325</v>
-      </c>
-      <c r="B9">
-        <v>341</v>
-      </c>
-      <c r="C9">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>307</v>
-      </c>
-      <c r="B10">
-        <v>346</v>
-      </c>
-      <c r="C10">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>307</v>
-      </c>
-      <c r="B11">
-        <v>355</v>
-      </c>
-      <c r="C11">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>327</v>
-      </c>
-      <c r="B12">
-        <v>343</v>
-      </c>
-      <c r="C12">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>306</v>
-      </c>
-      <c r="B13">
-        <v>362</v>
-      </c>
-      <c r="C13">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>315</v>
-      </c>
-      <c r="B14">
-        <v>348</v>
-      </c>
-      <c r="C14">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>295</v>
-      </c>
-      <c r="B15">
-        <v>348</v>
-      </c>
-      <c r="C15">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>301</v>
-      </c>
-      <c r="B16">
-        <v>349</v>
-      </c>
-      <c r="C16">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>313</v>
-      </c>
-      <c r="B17">
-        <v>359</v>
-      </c>
-      <c r="C17">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>353</v>
-      </c>
-      <c r="B18">
-        <v>358</v>
-      </c>
-      <c r="C18">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>323</v>
-      </c>
-      <c r="B19">
-        <v>339</v>
-      </c>
-      <c r="C19">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>304</v>
-      </c>
-      <c r="B20">
-        <v>353</v>
-      </c>
-      <c r="C20">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>310</v>
-      </c>
-      <c r="B21">
-        <v>323</v>
-      </c>
-      <c r="C21">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>304</v>
-      </c>
-      <c r="B22">
-        <v>332</v>
-      </c>
-      <c r="C22">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>295</v>
-      </c>
-      <c r="B23">
-        <v>344</v>
-      </c>
-      <c r="C23">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>298</v>
-      </c>
-      <c r="B24">
-        <v>351</v>
-      </c>
-      <c r="C24">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>317</v>
-      </c>
-      <c r="B25">
-        <v>334</v>
-      </c>
-      <c r="C25">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>309</v>
-      </c>
-      <c r="B26">
-        <v>340</v>
-      </c>
-      <c r="C26">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>317</v>
-      </c>
-      <c r="B27">
-        <v>347</v>
-      </c>
-      <c r="C27">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>334</v>
-      </c>
-      <c r="B28">
-        <v>374</v>
-      </c>
-      <c r="C28">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>320</v>
-      </c>
-      <c r="B29">
-        <v>333</v>
-      </c>
-      <c r="C29">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>303</v>
-      </c>
-      <c r="B30">
-        <v>350</v>
-      </c>
-      <c r="C30">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>309</v>
-      </c>
-      <c r="B31">
-        <v>360</v>
-      </c>
-      <c r="C31">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>307</v>
-      </c>
-      <c r="B32">
-        <v>343</v>
-      </c>
-      <c r="C32">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>302</v>
-      </c>
-      <c r="B33">
-        <v>329</v>
-      </c>
-      <c r="C33">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>306</v>
-      </c>
-      <c r="B34">
-        <v>335</v>
-      </c>
-      <c r="C34">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>303</v>
-      </c>
-      <c r="B35">
-        <v>319</v>
-      </c>
-      <c r="C35">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>272</v>
-      </c>
-      <c r="B36">
-        <v>328</v>
-      </c>
-      <c r="C36">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>310</v>
-      </c>
-      <c r="B37">
-        <v>337</v>
-      </c>
-      <c r="C37">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>295</v>
-      </c>
-      <c r="B38">
-        <v>377</v>
-      </c>
-      <c r="C38">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>306</v>
-      </c>
-      <c r="B39">
-        <v>344</v>
-      </c>
-      <c r="C39">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>299</v>
-      </c>
-      <c r="B40">
-        <v>326</v>
-      </c>
-      <c r="C40">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>312</v>
-      </c>
-      <c r="B41">
-        <v>314</v>
-      </c>
-      <c r="C41">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>282</v>
-      </c>
-      <c r="B42">
-        <v>313</v>
-      </c>
-      <c r="C42">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>296</v>
-      </c>
-      <c r="B43">
-        <v>334</v>
-      </c>
-      <c r="C43">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>282</v>
-      </c>
-      <c r="B44">
-        <v>313</v>
-      </c>
-      <c r="C44">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>311</v>
-      </c>
-      <c r="B45">
-        <v>330</v>
-      </c>
-      <c r="C45">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>300</v>
-      </c>
-      <c r="B46">
-        <v>314</v>
-      </c>
-      <c r="C46">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>278</v>
-      </c>
-      <c r="B47">
-        <v>323</v>
-      </c>
-      <c r="C47">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>287</v>
-      </c>
-      <c r="B48">
-        <v>317</v>
-      </c>
-      <c r="C48">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>373</v>
-      </c>
-      <c r="B49">
-        <v>328</v>
-      </c>
-      <c r="C49">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>294</v>
-      </c>
-      <c r="B50">
-        <v>318</v>
-      </c>
-      <c r="C50">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>295</v>
-      </c>
-      <c r="B51">
-        <v>323</v>
-      </c>
-      <c r="C51">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>305</v>
-      </c>
-      <c r="B52">
-        <v>327</v>
-      </c>
-      <c r="C52">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>289</v>
-      </c>
-      <c r="B53">
-        <v>331</v>
-      </c>
-      <c r="C53">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>295</v>
-      </c>
-      <c r="B54">
-        <v>325</v>
-      </c>
-      <c r="C54">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04C60BD-F30C-4ADE-B610-7763BA2CEEA2}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -46935,7 +46288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAA427-05CF-4A46-ABFC-7A3469A1AD65}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -47569,7 +46922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1337EECD-6544-4505-9BB5-1FE241846B62}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -48203,7 +47556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8705622C-1EB0-4058-BA59-585648ABFB02}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -48837,7 +48190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B3-14EB-4685-BED3-7CE808FE5C2A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -49471,7 +48824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B0189-298C-4D52-BEDB-C56A1C98C4FE}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -50105,7 +49458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E713126-4B65-41FB-895A-6253F3F0930E}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -50739,7 +50092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE2ED1-8493-4DFD-9F00-CCF0CDB61EE0}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -51373,7 +50726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79230E66-9B38-403C-AB27-9E0EAD58E1B3}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -52000,6 +51353,640 @@
       </c>
       <c r="C54">
         <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD694BB5-9D9D-4922-B16E-A62FEB3E5476}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>359</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>392</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>385</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>572.01020408163265</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>730.05755102040803</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>537.99224489795927</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>23.916734812294774</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>27.019577180637153</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>23.194659835788912</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>360</v>
+      </c>
+      <c r="B5">
+        <v>426</v>
+      </c>
+      <c r="C5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>370</v>
+      </c>
+      <c r="B6">
+        <v>399</v>
+      </c>
+      <c r="C6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>361</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>360</v>
+      </c>
+      <c r="B8">
+        <v>360</v>
+      </c>
+      <c r="C8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>422</v>
+      </c>
+      <c r="B9">
+        <v>408</v>
+      </c>
+      <c r="C9">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>368</v>
+      </c>
+      <c r="B10">
+        <v>401</v>
+      </c>
+      <c r="C10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>361</v>
+      </c>
+      <c r="B11">
+        <v>390</v>
+      </c>
+      <c r="C11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>375</v>
+      </c>
+      <c r="B12">
+        <v>458</v>
+      </c>
+      <c r="C12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <v>403</v>
+      </c>
+      <c r="C13">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>360</v>
+      </c>
+      <c r="B14">
+        <v>386</v>
+      </c>
+      <c r="C14">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>320</v>
+      </c>
+      <c r="B15">
+        <v>387</v>
+      </c>
+      <c r="C15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>357</v>
+      </c>
+      <c r="B16">
+        <v>383</v>
+      </c>
+      <c r="C16">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>350</v>
+      </c>
+      <c r="B17">
+        <v>382</v>
+      </c>
+      <c r="C17">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>351</v>
+      </c>
+      <c r="B18">
+        <v>373</v>
+      </c>
+      <c r="C18">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>417</v>
+      </c>
+      <c r="B19">
+        <v>402</v>
+      </c>
+      <c r="C19">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>361</v>
+      </c>
+      <c r="B20">
+        <v>383</v>
+      </c>
+      <c r="C20">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>349</v>
+      </c>
+      <c r="B21">
+        <v>387</v>
+      </c>
+      <c r="C21">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>359</v>
+      </c>
+      <c r="B22">
+        <v>450</v>
+      </c>
+      <c r="C22">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>351</v>
+      </c>
+      <c r="B23">
+        <v>386</v>
+      </c>
+      <c r="C23">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>354</v>
+      </c>
+      <c r="B24">
+        <v>389</v>
+      </c>
+      <c r="C24">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>317</v>
+      </c>
+      <c r="B25">
+        <v>394</v>
+      </c>
+      <c r="C25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>367</v>
+      </c>
+      <c r="B26">
+        <v>378</v>
+      </c>
+      <c r="C26">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>353</v>
+      </c>
+      <c r="B27">
+        <v>398</v>
+      </c>
+      <c r="C27">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>350</v>
+      </c>
+      <c r="B28">
+        <v>358</v>
+      </c>
+      <c r="C28">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>418</v>
+      </c>
+      <c r="B29">
+        <v>418</v>
+      </c>
+      <c r="C29">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>376</v>
+      </c>
+      <c r="B30">
+        <v>403</v>
+      </c>
+      <c r="C30">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>360</v>
+      </c>
+      <c r="B31">
+        <v>378</v>
+      </c>
+      <c r="C31">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>364</v>
+      </c>
+      <c r="B32">
+        <v>477</v>
+      </c>
+      <c r="C32">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>359</v>
+      </c>
+      <c r="B33">
+        <v>392</v>
+      </c>
+      <c r="C33">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>347</v>
+      </c>
+      <c r="B34">
+        <v>381</v>
+      </c>
+      <c r="C34">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>324</v>
+      </c>
+      <c r="B35">
+        <v>400</v>
+      </c>
+      <c r="C35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>372</v>
+      </c>
+      <c r="B36">
+        <v>394</v>
+      </c>
+      <c r="C36">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>367</v>
+      </c>
+      <c r="B37">
+        <v>421</v>
+      </c>
+      <c r="C37">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>352</v>
+      </c>
+      <c r="B38">
+        <v>364</v>
+      </c>
+      <c r="C38">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>430</v>
+      </c>
+      <c r="B39">
+        <v>430</v>
+      </c>
+      <c r="C39">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>359</v>
+      </c>
+      <c r="B40">
+        <v>406</v>
+      </c>
+      <c r="C40">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>347</v>
+      </c>
+      <c r="B41">
+        <v>387</v>
+      </c>
+      <c r="C41">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>352</v>
+      </c>
+      <c r="B42">
+        <v>460</v>
+      </c>
+      <c r="C42">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>352</v>
+      </c>
+      <c r="B43">
+        <v>387</v>
+      </c>
+      <c r="C43">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>359</v>
+      </c>
+      <c r="B44">
+        <v>385</v>
+      </c>
+      <c r="C44">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>331</v>
+      </c>
+      <c r="B45">
+        <v>395</v>
+      </c>
+      <c r="C45">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>356</v>
+      </c>
+      <c r="B46">
+        <v>392</v>
+      </c>
+      <c r="C46">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>351</v>
+      </c>
+      <c r="B47">
+        <v>390</v>
+      </c>
+      <c r="C47">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>351</v>
+      </c>
+      <c r="B48">
+        <v>349</v>
+      </c>
+      <c r="C48">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>427</v>
+      </c>
+      <c r="B49">
+        <v>397</v>
+      </c>
+      <c r="C49">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>350</v>
+      </c>
+      <c r="B50">
+        <v>379</v>
+      </c>
+      <c r="C50">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>343</v>
+      </c>
+      <c r="B51">
+        <v>388</v>
+      </c>
+      <c r="C51">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>365</v>
+      </c>
+      <c r="B52">
+        <v>471</v>
+      </c>
+      <c r="C52">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>360</v>
+      </c>
+      <c r="B53">
+        <v>398</v>
+      </c>
+      <c r="C53">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>350</v>
+      </c>
+      <c r="B54">
+        <v>380</v>
+      </c>
+      <c r="C54">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -52642,640 +52629,6 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD694BB5-9D9D-4922-B16E-A62FEB3E5476}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>359</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>392</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>385</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>572.01020408163265</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>730.05755102040803</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>537.99224489795927</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>23.916734812294774</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>27.019577180637153</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>23.194659835788912</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>360</v>
-      </c>
-      <c r="B5">
-        <v>426</v>
-      </c>
-      <c r="C5">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>370</v>
-      </c>
-      <c r="B6">
-        <v>399</v>
-      </c>
-      <c r="C6">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>361</v>
-      </c>
-      <c r="B7">
-        <v>400</v>
-      </c>
-      <c r="C7">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>360</v>
-      </c>
-      <c r="B8">
-        <v>360</v>
-      </c>
-      <c r="C8">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>422</v>
-      </c>
-      <c r="B9">
-        <v>408</v>
-      </c>
-      <c r="C9">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>368</v>
-      </c>
-      <c r="B10">
-        <v>401</v>
-      </c>
-      <c r="C10">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>361</v>
-      </c>
-      <c r="B11">
-        <v>390</v>
-      </c>
-      <c r="C11">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>375</v>
-      </c>
-      <c r="B12">
-        <v>458</v>
-      </c>
-      <c r="C12">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>360</v>
-      </c>
-      <c r="B13">
-        <v>403</v>
-      </c>
-      <c r="C13">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>360</v>
-      </c>
-      <c r="B14">
-        <v>386</v>
-      </c>
-      <c r="C14">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>320</v>
-      </c>
-      <c r="B15">
-        <v>387</v>
-      </c>
-      <c r="C15">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>357</v>
-      </c>
-      <c r="B16">
-        <v>383</v>
-      </c>
-      <c r="C16">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>350</v>
-      </c>
-      <c r="B17">
-        <v>382</v>
-      </c>
-      <c r="C17">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>351</v>
-      </c>
-      <c r="B18">
-        <v>373</v>
-      </c>
-      <c r="C18">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>417</v>
-      </c>
-      <c r="B19">
-        <v>402</v>
-      </c>
-      <c r="C19">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>361</v>
-      </c>
-      <c r="B20">
-        <v>383</v>
-      </c>
-      <c r="C20">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>349</v>
-      </c>
-      <c r="B21">
-        <v>387</v>
-      </c>
-      <c r="C21">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>359</v>
-      </c>
-      <c r="B22">
-        <v>450</v>
-      </c>
-      <c r="C22">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>351</v>
-      </c>
-      <c r="B23">
-        <v>386</v>
-      </c>
-      <c r="C23">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>354</v>
-      </c>
-      <c r="B24">
-        <v>389</v>
-      </c>
-      <c r="C24">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>317</v>
-      </c>
-      <c r="B25">
-        <v>394</v>
-      </c>
-      <c r="C25">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>367</v>
-      </c>
-      <c r="B26">
-        <v>378</v>
-      </c>
-      <c r="C26">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>353</v>
-      </c>
-      <c r="B27">
-        <v>398</v>
-      </c>
-      <c r="C27">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>350</v>
-      </c>
-      <c r="B28">
-        <v>358</v>
-      </c>
-      <c r="C28">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>418</v>
-      </c>
-      <c r="B29">
-        <v>418</v>
-      </c>
-      <c r="C29">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>376</v>
-      </c>
-      <c r="B30">
-        <v>403</v>
-      </c>
-      <c r="C30">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>360</v>
-      </c>
-      <c r="B31">
-        <v>378</v>
-      </c>
-      <c r="C31">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>364</v>
-      </c>
-      <c r="B32">
-        <v>477</v>
-      </c>
-      <c r="C32">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>359</v>
-      </c>
-      <c r="B33">
-        <v>392</v>
-      </c>
-      <c r="C33">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>347</v>
-      </c>
-      <c r="B34">
-        <v>381</v>
-      </c>
-      <c r="C34">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>324</v>
-      </c>
-      <c r="B35">
-        <v>400</v>
-      </c>
-      <c r="C35">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>372</v>
-      </c>
-      <c r="B36">
-        <v>394</v>
-      </c>
-      <c r="C36">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>367</v>
-      </c>
-      <c r="B37">
-        <v>421</v>
-      </c>
-      <c r="C37">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>352</v>
-      </c>
-      <c r="B38">
-        <v>364</v>
-      </c>
-      <c r="C38">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>430</v>
-      </c>
-      <c r="B39">
-        <v>430</v>
-      </c>
-      <c r="C39">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>359</v>
-      </c>
-      <c r="B40">
-        <v>406</v>
-      </c>
-      <c r="C40">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>347</v>
-      </c>
-      <c r="B41">
-        <v>387</v>
-      </c>
-      <c r="C41">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>352</v>
-      </c>
-      <c r="B42">
-        <v>460</v>
-      </c>
-      <c r="C42">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>352</v>
-      </c>
-      <c r="B43">
-        <v>387</v>
-      </c>
-      <c r="C43">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>359</v>
-      </c>
-      <c r="B44">
-        <v>385</v>
-      </c>
-      <c r="C44">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>331</v>
-      </c>
-      <c r="B45">
-        <v>395</v>
-      </c>
-      <c r="C45">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>356</v>
-      </c>
-      <c r="B46">
-        <v>392</v>
-      </c>
-      <c r="C46">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>351</v>
-      </c>
-      <c r="B47">
-        <v>390</v>
-      </c>
-      <c r="C47">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>351</v>
-      </c>
-      <c r="B48">
-        <v>349</v>
-      </c>
-      <c r="C48">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>427</v>
-      </c>
-      <c r="B49">
-        <v>397</v>
-      </c>
-      <c r="C49">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>350</v>
-      </c>
-      <c r="B50">
-        <v>379</v>
-      </c>
-      <c r="C50">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>343</v>
-      </c>
-      <c r="B51">
-        <v>388</v>
-      </c>
-      <c r="C51">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>365</v>
-      </c>
-      <c r="B52">
-        <v>471</v>
-      </c>
-      <c r="C52">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>360</v>
-      </c>
-      <c r="B53">
-        <v>398</v>
-      </c>
-      <c r="C53">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>350</v>
-      </c>
-      <c r="B54">
-        <v>380</v>
-      </c>
-      <c r="C54">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233B9A9-3A10-48E7-91DE-86F172284C3A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -53909,7 +53262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A906090-F1D6-478B-8FB2-D80B1A9F697D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -54543,7 +53896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC139C04-8C74-4C8B-BDDC-0D139A81E8FB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -55177,7 +54530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C397152-7BD9-45FA-AB61-76867345B2FC}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -55811,7 +55164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CDDF78-2449-496F-98B0-58E343BE145A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -56445,7 +55798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD18723-71EE-4B34-AA3D-4BDF930D5EB0}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -57079,7 +56432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418095F7-5695-4B43-A800-A45978570A83}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -57713,7 +57066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E582C38-6A79-457B-872C-0084A00DA9B1}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -58347,7 +57700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ED5C91-3363-4246-B842-D4B5997E3BDF}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -58974,6 +58327,640 @@
       </c>
       <c r="C54">
         <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DE5453-8A0F-4426-ACCE-8091439E0E3F}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>479</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>535</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>530</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>754.72816326530608</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>667.69836734693854</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>742.3759183673468</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>27.472316306880753</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>25.839860048903873</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>27.246576268723135</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>486</v>
+      </c>
+      <c r="B5">
+        <v>516</v>
+      </c>
+      <c r="C5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>535</v>
+      </c>
+      <c r="B6">
+        <v>556</v>
+      </c>
+      <c r="C6">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>496</v>
+      </c>
+      <c r="B7">
+        <v>597</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>580</v>
+      </c>
+      <c r="B8">
+        <v>633</v>
+      </c>
+      <c r="C8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>516</v>
+      </c>
+      <c r="B9">
+        <v>537</v>
+      </c>
+      <c r="C9">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>472</v>
+      </c>
+      <c r="B10">
+        <v>513</v>
+      </c>
+      <c r="C10">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>460</v>
+      </c>
+      <c r="B11">
+        <v>574</v>
+      </c>
+      <c r="C11">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>510</v>
+      </c>
+      <c r="B12">
+        <v>553</v>
+      </c>
+      <c r="C12">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>494</v>
+      </c>
+      <c r="B13">
+        <v>560</v>
+      </c>
+      <c r="C13">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>479</v>
+      </c>
+      <c r="B14">
+        <v>575</v>
+      </c>
+      <c r="C14">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>494</v>
+      </c>
+      <c r="B15">
+        <v>501</v>
+      </c>
+      <c r="C15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>488</v>
+      </c>
+      <c r="B16">
+        <v>578</v>
+      </c>
+      <c r="C16">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>505</v>
+      </c>
+      <c r="B17">
+        <v>534</v>
+      </c>
+      <c r="C17">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>498</v>
+      </c>
+      <c r="B18">
+        <v>524</v>
+      </c>
+      <c r="C18">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>462</v>
+      </c>
+      <c r="B19">
+        <v>548</v>
+      </c>
+      <c r="C19">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>468</v>
+      </c>
+      <c r="B20">
+        <v>521</v>
+      </c>
+      <c r="C20">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>477</v>
+      </c>
+      <c r="B21">
+        <v>547</v>
+      </c>
+      <c r="C21">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>470</v>
+      </c>
+      <c r="B22">
+        <v>537</v>
+      </c>
+      <c r="C22">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>447</v>
+      </c>
+      <c r="B23">
+        <v>529</v>
+      </c>
+      <c r="C23">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>454</v>
+      </c>
+      <c r="B24">
+        <v>542</v>
+      </c>
+      <c r="C24">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>444</v>
+      </c>
+      <c r="B25">
+        <v>545</v>
+      </c>
+      <c r="C25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>438</v>
+      </c>
+      <c r="B26">
+        <v>535</v>
+      </c>
+      <c r="C26">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>485</v>
+      </c>
+      <c r="B27">
+        <v>522</v>
+      </c>
+      <c r="C27">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>494</v>
+      </c>
+      <c r="B28">
+        <v>501</v>
+      </c>
+      <c r="C28">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>489</v>
+      </c>
+      <c r="B29">
+        <v>544</v>
+      </c>
+      <c r="C29">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>491</v>
+      </c>
+      <c r="B30">
+        <v>532</v>
+      </c>
+      <c r="C30">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>479</v>
+      </c>
+      <c r="B31">
+        <v>550</v>
+      </c>
+      <c r="C31">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>494</v>
+      </c>
+      <c r="B32">
+        <v>537</v>
+      </c>
+      <c r="C32">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>480</v>
+      </c>
+      <c r="B33">
+        <v>532</v>
+      </c>
+      <c r="C33">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>435</v>
+      </c>
+      <c r="B34">
+        <v>525</v>
+      </c>
+      <c r="C34">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>435</v>
+      </c>
+      <c r="B35">
+        <v>537</v>
+      </c>
+      <c r="C35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>458</v>
+      </c>
+      <c r="B36">
+        <v>535</v>
+      </c>
+      <c r="C36">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>455</v>
+      </c>
+      <c r="B37">
+        <v>528</v>
+      </c>
+      <c r="C37">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>435</v>
+      </c>
+      <c r="B38">
+        <v>532</v>
+      </c>
+      <c r="C38">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>490</v>
+      </c>
+      <c r="B39">
+        <v>498</v>
+      </c>
+      <c r="C39">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>441</v>
+      </c>
+      <c r="B40">
+        <v>524</v>
+      </c>
+      <c r="C40">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>488</v>
+      </c>
+      <c r="B41">
+        <v>504</v>
+      </c>
+      <c r="C41">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>469</v>
+      </c>
+      <c r="B42">
+        <v>546</v>
+      </c>
+      <c r="C42">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>444</v>
+      </c>
+      <c r="B43">
+        <v>561</v>
+      </c>
+      <c r="C43">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <v>526</v>
+      </c>
+      <c r="C44">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>481</v>
+      </c>
+      <c r="B45">
+        <v>503</v>
+      </c>
+      <c r="C45">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>504</v>
+      </c>
+      <c r="B46">
+        <v>539</v>
+      </c>
+      <c r="C46">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>482</v>
+      </c>
+      <c r="B47">
+        <v>551</v>
+      </c>
+      <c r="C47">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>466</v>
+      </c>
+      <c r="B48">
+        <v>494</v>
+      </c>
+      <c r="C48">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>457</v>
+      </c>
+      <c r="B49">
+        <v>532</v>
+      </c>
+      <c r="C49">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>459</v>
+      </c>
+      <c r="B50">
+        <v>529</v>
+      </c>
+      <c r="C50">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>492</v>
+      </c>
+      <c r="B51">
+        <v>497</v>
+      </c>
+      <c r="C51">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>498</v>
+      </c>
+      <c r="B52">
+        <v>543</v>
+      </c>
+      <c r="C52">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>459</v>
+      </c>
+      <c r="B53">
+        <v>543</v>
+      </c>
+      <c r="C53">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>458</v>
+      </c>
+      <c r="B54">
+        <v>513</v>
+      </c>
+      <c r="C54">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -59616,640 +59603,6 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DE5453-8A0F-4426-ACCE-8091439E0E3F}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>MEDIAN(A5:A54)</f>
-        <v>479</v>
-      </c>
-      <c r="B2" s="4">
-        <f>MEDIAN(B5:B54)</f>
-        <v>535</v>
-      </c>
-      <c r="C2" s="5">
-        <f>MEDIAN(C5:C54)</f>
-        <v>530</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f>VAR(A5:A54)</f>
-        <v>754.72816326530608</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VAR(B5:B54)</f>
-        <v>667.69836734693854</v>
-      </c>
-      <c r="C3" s="8">
-        <f>VAR(C5:C54)</f>
-        <v>742.3759183673468</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f>STDEV(A5:A54)</f>
-        <v>27.472316306880753</v>
-      </c>
-      <c r="B4" s="11">
-        <f>STDEV(B5:B54)</f>
-        <v>25.839860048903873</v>
-      </c>
-      <c r="C4" s="12">
-        <f>STDEV(C5:C54)</f>
-        <v>27.246576268723135</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>486</v>
-      </c>
-      <c r="B5">
-        <v>516</v>
-      </c>
-      <c r="C5">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>535</v>
-      </c>
-      <c r="B6">
-        <v>556</v>
-      </c>
-      <c r="C6">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>496</v>
-      </c>
-      <c r="B7">
-        <v>597</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>580</v>
-      </c>
-      <c r="B8">
-        <v>633</v>
-      </c>
-      <c r="C8">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>516</v>
-      </c>
-      <c r="B9">
-        <v>537</v>
-      </c>
-      <c r="C9">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>472</v>
-      </c>
-      <c r="B10">
-        <v>513</v>
-      </c>
-      <c r="C10">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>460</v>
-      </c>
-      <c r="B11">
-        <v>574</v>
-      </c>
-      <c r="C11">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>510</v>
-      </c>
-      <c r="B12">
-        <v>553</v>
-      </c>
-      <c r="C12">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>494</v>
-      </c>
-      <c r="B13">
-        <v>560</v>
-      </c>
-      <c r="C13">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>479</v>
-      </c>
-      <c r="B14">
-        <v>575</v>
-      </c>
-      <c r="C14">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>494</v>
-      </c>
-      <c r="B15">
-        <v>501</v>
-      </c>
-      <c r="C15">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>488</v>
-      </c>
-      <c r="B16">
-        <v>578</v>
-      </c>
-      <c r="C16">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>505</v>
-      </c>
-      <c r="B17">
-        <v>534</v>
-      </c>
-      <c r="C17">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>498</v>
-      </c>
-      <c r="B18">
-        <v>524</v>
-      </c>
-      <c r="C18">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>462</v>
-      </c>
-      <c r="B19">
-        <v>548</v>
-      </c>
-      <c r="C19">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>468</v>
-      </c>
-      <c r="B20">
-        <v>521</v>
-      </c>
-      <c r="C20">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>477</v>
-      </c>
-      <c r="B21">
-        <v>547</v>
-      </c>
-      <c r="C21">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>470</v>
-      </c>
-      <c r="B22">
-        <v>537</v>
-      </c>
-      <c r="C22">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>447</v>
-      </c>
-      <c r="B23">
-        <v>529</v>
-      </c>
-      <c r="C23">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>454</v>
-      </c>
-      <c r="B24">
-        <v>542</v>
-      </c>
-      <c r="C24">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>444</v>
-      </c>
-      <c r="B25">
-        <v>545</v>
-      </c>
-      <c r="C25">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>438</v>
-      </c>
-      <c r="B26">
-        <v>535</v>
-      </c>
-      <c r="C26">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>485</v>
-      </c>
-      <c r="B27">
-        <v>522</v>
-      </c>
-      <c r="C27">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>494</v>
-      </c>
-      <c r="B28">
-        <v>501</v>
-      </c>
-      <c r="C28">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>489</v>
-      </c>
-      <c r="B29">
-        <v>544</v>
-      </c>
-      <c r="C29">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>491</v>
-      </c>
-      <c r="B30">
-        <v>532</v>
-      </c>
-      <c r="C30">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>479</v>
-      </c>
-      <c r="B31">
-        <v>550</v>
-      </c>
-      <c r="C31">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>494</v>
-      </c>
-      <c r="B32">
-        <v>537</v>
-      </c>
-      <c r="C32">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>480</v>
-      </c>
-      <c r="B33">
-        <v>532</v>
-      </c>
-      <c r="C33">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>435</v>
-      </c>
-      <c r="B34">
-        <v>525</v>
-      </c>
-      <c r="C34">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>435</v>
-      </c>
-      <c r="B35">
-        <v>537</v>
-      </c>
-      <c r="C35">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>458</v>
-      </c>
-      <c r="B36">
-        <v>535</v>
-      </c>
-      <c r="C36">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>455</v>
-      </c>
-      <c r="B37">
-        <v>528</v>
-      </c>
-      <c r="C37">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>435</v>
-      </c>
-      <c r="B38">
-        <v>532</v>
-      </c>
-      <c r="C38">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>490</v>
-      </c>
-      <c r="B39">
-        <v>498</v>
-      </c>
-      <c r="C39">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>441</v>
-      </c>
-      <c r="B40">
-        <v>524</v>
-      </c>
-      <c r="C40">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>488</v>
-      </c>
-      <c r="B41">
-        <v>504</v>
-      </c>
-      <c r="C41">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>469</v>
-      </c>
-      <c r="B42">
-        <v>546</v>
-      </c>
-      <c r="C42">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>444</v>
-      </c>
-      <c r="B43">
-        <v>561</v>
-      </c>
-      <c r="C43">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>455</v>
-      </c>
-      <c r="B44">
-        <v>526</v>
-      </c>
-      <c r="C44">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>481</v>
-      </c>
-      <c r="B45">
-        <v>503</v>
-      </c>
-      <c r="C45">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>504</v>
-      </c>
-      <c r="B46">
-        <v>539</v>
-      </c>
-      <c r="C46">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>482</v>
-      </c>
-      <c r="B47">
-        <v>551</v>
-      </c>
-      <c r="C47">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>466</v>
-      </c>
-      <c r="B48">
-        <v>494</v>
-      </c>
-      <c r="C48">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>457</v>
-      </c>
-      <c r="B49">
-        <v>532</v>
-      </c>
-      <c r="C49">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>459</v>
-      </c>
-      <c r="B50">
-        <v>529</v>
-      </c>
-      <c r="C50">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>492</v>
-      </c>
-      <c r="B51">
-        <v>497</v>
-      </c>
-      <c r="C51">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>498</v>
-      </c>
-      <c r="B52">
-        <v>543</v>
-      </c>
-      <c r="C52">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>459</v>
-      </c>
-      <c r="B53">
-        <v>543</v>
-      </c>
-      <c r="C53">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>458</v>
-      </c>
-      <c r="B54">
-        <v>513</v>
-      </c>
-      <c r="C54">
-        <v>492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3818D-5C43-45A1-B03E-CBA45ECF2510}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -60883,7 +60236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5D7CBE-8505-45FC-8F10-D659B03A199A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -61517,7 +60870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6950F4E-556F-4BD4-A5EE-38FE336B77A0}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -62151,7 +61504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BADD9F6-F2D6-4FEF-B4E8-81BA3AA2C9A7}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -62785,7 +62138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E3D62F-23B0-4BDB-A3F7-B7DB5A474D6C}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -63419,7 +62772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5E5387-2431-45D0-9FAB-9A71DD8026CD}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -64053,7 +63406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE723A-E7E9-458D-A11D-59B57CF93074}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -64687,7 +64040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFAF753-20E1-466E-A901-BE0B0A684CF8}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -65321,7 +64674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7404B6-CA8A-4094-A83C-2137E655361F}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -65953,4 +65306,638 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6819AB-E47B-4009-9D64-D972A846A6F7}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <f>MEDIAN(A5:A54)</f>
+        <v>622.5</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MEDIAN(B5:B54)</f>
+        <v>690</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MEDIAN(C5:C54)</f>
+        <v>693.5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>VAR(A5:A54)</f>
+        <v>2309.7244897959185</v>
+      </c>
+      <c r="B3" s="7">
+        <f>VAR(B5:B54)</f>
+        <v>1661.4861224489791</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VAR(C5:C54)</f>
+        <v>497.1902040816326</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f>STDEV(A5:A54)</f>
+        <v>48.059593108930066</v>
+      </c>
+      <c r="B4" s="11">
+        <f>STDEV(B5:B54)</f>
+        <v>40.761331215368557</v>
+      </c>
+      <c r="C4" s="12">
+        <f>STDEV(C5:C54)</f>
+        <v>22.297762311084774</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>675</v>
+      </c>
+      <c r="B5">
+        <v>702</v>
+      </c>
+      <c r="C5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>599</v>
+      </c>
+      <c r="B6">
+        <v>767</v>
+      </c>
+      <c r="C6">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>613</v>
+      </c>
+      <c r="B7">
+        <v>674</v>
+      </c>
+      <c r="C7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>646</v>
+      </c>
+      <c r="B8">
+        <v>700</v>
+      </c>
+      <c r="C8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>607</v>
+      </c>
+      <c r="B9">
+        <v>685</v>
+      </c>
+      <c r="C9">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>733</v>
+      </c>
+      <c r="B10">
+        <v>742</v>
+      </c>
+      <c r="C10">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>574</v>
+      </c>
+      <c r="B11">
+        <v>684</v>
+      </c>
+      <c r="C11">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>606</v>
+      </c>
+      <c r="B12">
+        <v>782</v>
+      </c>
+      <c r="C12">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>642</v>
+      </c>
+      <c r="B13">
+        <v>681</v>
+      </c>
+      <c r="C13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>733</v>
+      </c>
+      <c r="B14">
+        <v>685</v>
+      </c>
+      <c r="C14">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>659</v>
+      </c>
+      <c r="B15">
+        <v>680</v>
+      </c>
+      <c r="C15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>686</v>
+      </c>
+      <c r="B16">
+        <v>670</v>
+      </c>
+      <c r="C16">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>564</v>
+      </c>
+      <c r="B17">
+        <v>692</v>
+      </c>
+      <c r="C17">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>574</v>
+      </c>
+      <c r="B18">
+        <v>684</v>
+      </c>
+      <c r="C18">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>620</v>
+      </c>
+      <c r="B19">
+        <v>703</v>
+      </c>
+      <c r="C19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>641</v>
+      </c>
+      <c r="B20">
+        <v>681</v>
+      </c>
+      <c r="C20">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>591</v>
+      </c>
+      <c r="B21">
+        <v>693</v>
+      </c>
+      <c r="C21">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>586</v>
+      </c>
+      <c r="B22">
+        <v>680</v>
+      </c>
+      <c r="C22">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>573</v>
+      </c>
+      <c r="B23">
+        <v>771</v>
+      </c>
+      <c r="C23">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>630</v>
+      </c>
+      <c r="B24">
+        <v>670</v>
+      </c>
+      <c r="C24">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>722</v>
+      </c>
+      <c r="B25">
+        <v>701</v>
+      </c>
+      <c r="C25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>581</v>
+      </c>
+      <c r="B26">
+        <v>675</v>
+      </c>
+      <c r="C26">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>624</v>
+      </c>
+      <c r="B27">
+        <v>675</v>
+      </c>
+      <c r="C27">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>708</v>
+      </c>
+      <c r="B28">
+        <v>734</v>
+      </c>
+      <c r="C28">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>681</v>
+      </c>
+      <c r="B29">
+        <v>772</v>
+      </c>
+      <c r="C29">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>655</v>
+      </c>
+      <c r="B30">
+        <v>670</v>
+      </c>
+      <c r="C30">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>670</v>
+      </c>
+      <c r="B31">
+        <v>688</v>
+      </c>
+      <c r="C31">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>574</v>
+      </c>
+      <c r="B32">
+        <v>691</v>
+      </c>
+      <c r="C32">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>603</v>
+      </c>
+      <c r="B33">
+        <v>683</v>
+      </c>
+      <c r="C33">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>673</v>
+      </c>
+      <c r="B34">
+        <v>669</v>
+      </c>
+      <c r="C34">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>721</v>
+      </c>
+      <c r="B35">
+        <v>742</v>
+      </c>
+      <c r="C35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>598</v>
+      </c>
+      <c r="B36">
+        <v>689</v>
+      </c>
+      <c r="C36">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>716</v>
+      </c>
+      <c r="B37">
+        <v>710</v>
+      </c>
+      <c r="C37">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>684</v>
+      </c>
+      <c r="B38">
+        <v>734</v>
+      </c>
+      <c r="C38">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>609</v>
+      </c>
+      <c r="B39">
+        <v>697</v>
+      </c>
+      <c r="C39">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>623</v>
+      </c>
+      <c r="B40">
+        <v>682</v>
+      </c>
+      <c r="C40">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>727</v>
+      </c>
+      <c r="B41">
+        <v>831</v>
+      </c>
+      <c r="C41">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>630</v>
+      </c>
+      <c r="B42">
+        <v>694</v>
+      </c>
+      <c r="C42">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>617</v>
+      </c>
+      <c r="B43">
+        <v>770</v>
+      </c>
+      <c r="C43">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>630</v>
+      </c>
+      <c r="B44">
+        <v>687</v>
+      </c>
+      <c r="C44">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>594</v>
+      </c>
+      <c r="B45">
+        <v>796</v>
+      </c>
+      <c r="C45">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>635</v>
+      </c>
+      <c r="B46">
+        <v>698</v>
+      </c>
+      <c r="C46">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>588</v>
+      </c>
+      <c r="B47">
+        <v>811</v>
+      </c>
+      <c r="C47">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>588</v>
+      </c>
+      <c r="B48">
+        <v>683</v>
+      </c>
+      <c r="C48">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>611</v>
+      </c>
+      <c r="B49">
+        <v>687</v>
+      </c>
+      <c r="C49">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>581</v>
+      </c>
+      <c r="B50">
+        <v>669</v>
+      </c>
+      <c r="C50">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>622</v>
+      </c>
+      <c r="B51">
+        <v>677</v>
+      </c>
+      <c r="C51">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>613</v>
+      </c>
+      <c r="B52">
+        <v>699</v>
+      </c>
+      <c r="C52">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>662</v>
+      </c>
+      <c r="B53">
+        <v>693</v>
+      </c>
+      <c r="C53">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>613</v>
+      </c>
+      <c r="B54">
+        <v>670</v>
+      </c>
+      <c r="C54">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\SecondoProgettoASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C33632-6233-4382-A8D8-9376B0048C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D1C31-CE4D-4A12-A8C2-33344C9BC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1410" windowWidth="27000" windowHeight="14790" tabRatio="864" firstSheet="82" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27000" windowHeight="14790" tabRatio="864" firstSheet="83" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <sheet name="4201717" sheetId="98" r:id="rId98"/>
     <sheet name="4689117" sheetId="99" r:id="rId99"/>
     <sheet name="5233054" sheetId="100" r:id="rId100"/>
-    <sheet name="Foglio1" sheetId="101" r:id="rId101"/>
+    <sheet name="Analisi dei tempi" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual" iterate="1"/>
   <extLst>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" ref="A2:A33" si="0">ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
         <v>100</v>
       </c>
       <c r="B2" s="15" cm="1">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="B3" s="15" cm="1">
@@ -2848,7 +2848,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="B4" s="15" cm="1">
@@ -2866,7 +2866,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="B5" s="15" cm="1">
@@ -2884,7 +2884,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="B6" s="15" cm="1">
@@ -2902,7 +2902,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>173</v>
       </c>
       <c r="B7" s="15" cm="1">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>193</v>
       </c>
       <c r="B8" s="15" cm="1">
@@ -2938,7 +2938,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="B9" s="15" cm="1">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="B10" s="15" cm="1">
@@ -2974,7 +2974,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>268</v>
       </c>
       <c r="B11" s="15" cm="1">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
       <c r="B12" s="15" cm="1">
@@ -3010,7 +3010,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>334</v>
       </c>
       <c r="B13" s="15" cm="1">
@@ -3028,7 +3028,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
       <c r="B14" s="15" cm="1">
@@ -3046,7 +3046,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>416</v>
       </c>
       <c r="B15" s="15" cm="1">
@@ -3064,7 +3064,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>464</v>
       </c>
       <c r="B16" s="15" cm="1">
@@ -3082,7 +3082,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="B17" s="15" cm="1">
@@ -3100,7 +3100,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>578</v>
       </c>
       <c r="B18" s="15" cm="1">
@@ -3118,7 +3118,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="B19" s="15" cm="1">
@@ -3136,7 +3136,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>721</v>
       </c>
       <c r="B20" s="15" cm="1">
@@ -3154,7 +3154,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>804</v>
       </c>
       <c r="B21" s="15" cm="1">
@@ -3172,7 +3172,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
       <c r="B22" s="15" cm="1">
@@ -3190,7 +3190,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="B23" s="15" cm="1">
@@ -3208,7 +3208,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1118</v>
       </c>
       <c r="B24" s="15" cm="1">
@@ -3226,7 +3226,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1248</v>
       </c>
       <c r="B25" s="15" cm="1">
@@ -3244,7 +3244,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1392</v>
       </c>
       <c r="B26" s="15" cm="1">
@@ -3262,7 +3262,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1554</v>
       </c>
       <c r="B27" s="15" cm="1">
@@ -3280,7 +3280,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1734</v>
       </c>
       <c r="B28" s="15" cm="1">
@@ -3298,7 +3298,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>1936</v>
       </c>
       <c r="B29" s="15" cm="1">
@@ -3316,7 +3316,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>2160</v>
       </c>
       <c r="B30" s="15" cm="1">
@@ -3334,7 +3334,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="B31" s="15" cm="1">
@@ -3352,7 +3352,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>2691</v>
       </c>
       <c r="B32" s="15" cm="1">
@@ -3370,7 +3370,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="0"/>
         <v>3003</v>
       </c>
       <c r="B33" s="15" cm="1">
@@ -3388,7 +3388,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" ref="A34:A65" si="1">ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
         <v>3351</v>
       </c>
       <c r="B34" s="15" cm="1">
@@ -3406,7 +3406,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>3740</v>
       </c>
       <c r="B35" s="15" cm="1">
@@ -3424,7 +3424,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>4174</v>
       </c>
       <c r="B36" s="15" cm="1">
@@ -3442,7 +3442,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>4658</v>
       </c>
       <c r="B37" s="15" cm="1">
@@ -3460,7 +3460,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>5198</v>
       </c>
       <c r="B38" s="15" cm="1">
@@ -3478,7 +3478,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>5801</v>
       </c>
       <c r="B39" s="15" cm="1">
@@ -3496,7 +3496,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>6474</v>
       </c>
       <c r="B40" s="15" cm="1">
@@ -3514,7 +3514,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>7226</v>
       </c>
       <c r="B41" s="15" cm="1">
@@ -3532,7 +3532,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>8064</v>
       </c>
       <c r="B42" s="15" cm="1">
@@ -3550,7 +3550,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>8999</v>
       </c>
       <c r="B43" s="15" cm="1">
@@ -3568,7 +3568,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>10043</v>
       </c>
       <c r="B44" s="15" cm="1">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>11208</v>
       </c>
       <c r="B45" s="15" cm="1">
@@ -3604,7 +3604,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>12509</v>
       </c>
       <c r="B46" s="15" cm="1">
@@ -3622,7 +3622,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>13960</v>
       </c>
       <c r="B47" s="15" cm="1">
@@ -3640,7 +3640,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>15579</v>
       </c>
       <c r="B48" s="15" cm="1">
@@ -3658,7 +3658,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>17386</v>
       </c>
       <c r="B49" s="15" cm="1">
@@ -3676,7 +3676,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>19403</v>
       </c>
       <c r="B50" s="15" cm="1">
@@ -3694,7 +3694,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>21654</v>
       </c>
       <c r="B51" s="15" cm="1">
@@ -3712,7 +3712,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>24166</v>
       </c>
       <c r="B52" s="15" cm="1">
@@ -3730,7 +3730,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>26969</v>
       </c>
       <c r="B53" s="15" cm="1">
@@ -3748,7 +3748,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>30098</v>
       </c>
       <c r="B54" s="15" cm="1">
@@ -3766,7 +3766,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>33589</v>
       </c>
       <c r="B55" s="15" cm="1">
@@ -3784,7 +3784,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>37485</v>
       </c>
       <c r="B56" s="15" cm="1">
@@ -3802,7 +3802,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>41834</v>
       </c>
       <c r="B57" s="15" cm="1">
@@ -3820,7 +3820,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>46686</v>
       </c>
       <c r="B58" s="15" cm="1">
@@ -3838,7 +3838,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>52102</v>
       </c>
       <c r="B59" s="15" cm="1">
@@ -3856,7 +3856,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>58146</v>
       </c>
       <c r="B60" s="15" cm="1">
@@ -3874,7 +3874,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>64891</v>
       </c>
       <c r="B61" s="15" cm="1">
@@ -3892,7 +3892,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>72418</v>
       </c>
       <c r="B62" s="15" cm="1">
@@ -3910,7 +3910,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>80819</v>
       </c>
       <c r="B63" s="15" cm="1">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>90194</v>
       </c>
       <c r="B64" s="15" cm="1">
@@ -3946,7 +3946,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="1"/>
         <v>100657</v>
       </c>
       <c r="B65" s="15" cm="1">
@@ -3964,7 +3964,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" ref="A66:A101" si="2">ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
         <v>112333</v>
       </c>
       <c r="B66" s="15" cm="1">
@@ -3982,7 +3982,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>125363</v>
       </c>
       <c r="B67" s="15" cm="1">
@@ -4000,7 +4000,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>139906</v>
       </c>
       <c r="B68" s="15" cm="1">
@@ -4018,7 +4018,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>156135</v>
       </c>
       <c r="B69" s="15" cm="1">
@@ -4036,7 +4036,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>174246</v>
       </c>
       <c r="B70" s="15" cm="1">
@@ -4054,7 +4054,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>194459</v>
       </c>
       <c r="B71" s="15" cm="1">
@@ -4072,7 +4072,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>217016</v>
       </c>
       <c r="B72" s="15" cm="1">
@@ -4090,7 +4090,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>242190</v>
       </c>
       <c r="B73" s="15" cm="1">
@@ -4108,7 +4108,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>270285</v>
       </c>
       <c r="B74" s="15" cm="1">
@@ -4126,7 +4126,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>301638</v>
       </c>
       <c r="B75" s="15" cm="1">
@@ -4144,7 +4144,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>336628</v>
       </c>
       <c r="B76" s="15" cm="1">
@@ -4162,7 +4162,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>375676</v>
       </c>
       <c r="B77" s="15" cm="1">
@@ -4180,7 +4180,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>419255</v>
       </c>
       <c r="B78" s="15" cm="1">
@@ -4198,7 +4198,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>467889</v>
       </c>
       <c r="B79" s="15" cm="1">
@@ -4216,7 +4216,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>522164</v>
       </c>
       <c r="B80" s="15" cm="1">
@@ -4234,7 +4234,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>582735</v>
       </c>
       <c r="B81" s="15" cm="1">
@@ -4252,7 +4252,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>650332</v>
       </c>
       <c r="B82" s="15" cm="1">
@@ -4270,7 +4270,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>725771</v>
       </c>
       <c r="B83" s="15" cm="1">
@@ -4288,7 +4288,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>809960</v>
       </c>
       <c r="B84" s="15" cm="1">
@@ -4306,7 +4306,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>903916</v>
       </c>
       <c r="B85" s="15" cm="1">
@@ -4324,7 +4324,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1008770</v>
       </c>
       <c r="B86" s="15" cm="1">
@@ -4342,7 +4342,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1125787</v>
       </c>
       <c r="B87" s="15" cm="1">
@@ -4360,7 +4360,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1256379</v>
       </c>
       <c r="B88" s="15" cm="1">
@@ -4378,7 +4378,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1402119</v>
       </c>
       <c r="B89" s="15" cm="1">
@@ -4396,7 +4396,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1564765</v>
       </c>
       <c r="B90" s="15" cm="1">
@@ -4414,7 +4414,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1746277</v>
       </c>
       <c r="B91" s="15" cm="1">
@@ -4432,7 +4432,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>1948845</v>
       </c>
       <c r="B92" s="15" cm="1">
@@ -4450,7 +4450,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>2174912</v>
       </c>
       <c r="B93" s="15" cm="1">
@@ -4468,7 +4468,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>2427201</v>
       </c>
       <c r="B94" s="15" cm="1">
@@ -4486,7 +4486,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>2708757</v>
       </c>
       <c r="B95" s="15" cm="1">
@@ -4504,7 +4504,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>3022973</v>
       </c>
       <c r="B96" s="15" cm="1">
@@ -4522,7 +4522,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>3373638</v>
       </c>
       <c r="B97" s="15" cm="1">
@@ -4540,7 +4540,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>3764980</v>
       </c>
       <c r="B98" s="15" cm="1">
@@ -4558,7 +4558,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>4201717</v>
       </c>
       <c r="B99" s="15" cm="1">
@@ -4576,7 +4576,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>4689117</v>
       </c>
       <c r="B100" s="15" cm="1">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
-        <f>ROUNDDOWN(100*(1.116^(ROW()-2)),0)</f>
+        <f t="shared" si="2"/>
         <v>5233054</v>
       </c>
       <c r="B101" s="15" cm="1">
